--- a/Timeout details and performance/Timeout details JAMU.xlsx
+++ b/Timeout details and performance/Timeout details JAMU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirnazertuche/Desktop/ASAP/Timeout details and performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFDFDD1-473D-864D-8406-499B81D04468}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60120E5-ECF7-5C4C-AE98-25CB1AD3BB1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{24B566B9-7BA3-7F4E-AD73-9A0EEA72F0DE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{24B566B9-7BA3-7F4E-AD73-9A0EEA72F0DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeout details" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="851">
   <si>
     <t xml:space="preserve">WO_ID                                                                                                            SRQ_ID WO_STATUS   FAILURE_REASON                                                                                                                                                                                                                                                  SCHD_DTS             STRT_DTS             CMP_DTS            </t>
   </si>
@@ -33,2431 +33,2551 @@
     <t>-------------------------------------------------------------------------------- -------------------------------------- ----------- ---------------------------------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">CIS:JAM:190124413:172.21.64.17:25007:1541988045507                                                              1795092 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:45 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124412:172.21.64.17:25007:1541988045127                                                              1795091 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:45 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124411:172.21.64.17:25007:1541988044827                                                              1795090 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:44 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124410:172.21.64.17:25007:1541988044505                                                              1795089 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:44 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124409:172.21.64.17:25007:1541988044207                                                              1795088 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:44 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124408:172.21.64.17:25007:1541988043895                                                              1795087 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:44 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124407:172.21.64.17:25007:1541988043597                                                              1795086 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:43 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124406:172.21.64.17:25007:1541988043280                                                              1795085 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:43 11-NOV-2018 21:01:08                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124405:172.21.64.17:25007:1541988042977                                                              1795084 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:43 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124404:172.21.64.17:25007:1541988042676                                                              1795083 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:42 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124403:172.21.64.17:25007:1541988042377                                                              1795082 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:42 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124402:172.21.64.17:25007:1541988042053                                                              1795081 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:42 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124375:172.21.64.17:25007:1541988032847                                                              1795080 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:32 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124374:172.21.64.17:25007:1541988032519                                                              1795079 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:32 11-NOV-2018 21:01:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124369:172.21.64.17:25007:1541988031007                                                              1795078 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:31 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124367:172.21.64.17:25007:1541988030397                                                              1795077 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:30 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124366:172.21.64.17:25007:1541988030082                                                              1795076 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:30 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124359:172.21.64.17:25007:1541988028007                                                              1795075 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:28 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124351:172.21.64.17:25007:1541988025647                                                              1795074 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:25 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124348:172.21.64.17:25007:1541988024739                                                              1795073 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:24 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124347:172.21.64.17:25007:1541988024437                                                              1795072 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:24 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124346:172.21.64.17:25007:1541988024046                                                              1795071 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:24 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124345:172.21.64.17:25007:1541988023697                                                              1795070 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:23 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124344:172.21.64.17:25007:1541988023390                                                              1795069 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:23 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124340:172.21.64.17:25007:1541988022148                                                              1795068 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:22 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124339:172.21.64.17:25007:1541988021839                                                              1795067 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:21 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124338:172.21.64.17:25007:1541988021517                                                              1795066 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:21 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124329:172.21.64.17:25007:1541988018745                                                              1795065 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:18 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124328:172.21.64.17:25007:1541988018427                                                              1795064 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:18 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124327:172.21.64.17:25007:1541988018095                                                              1795063 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:18 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124326:172.21.64.17:25007:1541988017687                                                              1795062 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:17 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124325:172.21.64.17:25007:1541988017206                                                              1795061 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:17 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124324:172.21.64.17:25007:1541988016857                                                              1795060 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:16 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124323:172.21.64.17:25007:1541988016445                                                              1795059 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:16 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190124322:172.21.64.17:25007:1541988016087                                                              1795058 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 21:00:16 11-NOV-2018 21:01:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123941:172.21.64.17:25007:1541975405297                                                              1794970 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:05 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123940:172.21.64.17:25007:1541975404919                                                              1794969 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:05 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123939:172.21.64.17:25007:1541975404607                                                              1794968 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:04 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123938:172.21.64.17:25007:1541975404279                                                              1794967 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:04 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123937:172.21.64.17:25007:1541975403958                                                              1794966 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:04 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123936:172.21.64.17:25007:1541975403649                                                              1794965 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:03 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123935:172.21.64.17:25007:1541975403326                                                              1794964 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:03 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123934:172.21.64.17:25007:1541975403019                                                              1794963 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:03 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123933:172.21.64.17:25007:1541975402662                                                              1794962 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:02 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123932:172.21.64.17:25007:1541975402349                                                              1794961 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 17:30:02 11-NOV-2018 17:30:47                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123578:172.21.64.17:25007:1541962806412                                                              1794873 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:06 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123577:172.21.64.17:25007:1541962806102                                                              1794872 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:06 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123576:172.21.64.17:25007:1541962805782                                                              1794871 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:05 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123575:172.21.64.17:25007:1541962805469                                                              1794870 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:05 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123574:172.21.64.17:25007:1541962805172                                                              1794869 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:05 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123573:172.21.64.17:25007:1541962804838                                                              1794868 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:04 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123572:172.21.64.17:25007:1541962804522                                                              1794867 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:04 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123571:172.21.64.17:25007:1541962804187                                                              1794866 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:04 11-NOV-2018 14:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123570:172.21.64.17:25007:1541962803872                                                              1794865 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:03 11-NOV-2018 14:00:04                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190123569:172.21.64.17:25007:1541962803560                                                              1794864 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 14:00:03 11-NOV-2018 14:00:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114157:172.21.64.17:25007:1541950216503                                                              1793269 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:16 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114156:172.21.64.17:25007:1541950216191                                                              1793268 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:16 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114155:172.21.64.17:25007:1541950215883                                                              1793267 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:16 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114154:172.21.64.17:25007:1541950215570                                                              1793266 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:15 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114153:172.21.64.17:25007:1541950215263                                                              1793265 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:15 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114152:172.21.64.17:25007:1541950214936                                                              1793264 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:15 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114151:172.21.64.17:25007:1541950214613                                                              1793263 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:14 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114150:172.21.64.17:25007:1541950214291                                                              1793262 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:14 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114149:172.21.64.17:25007:1541950213973                                                              1793261 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:14 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114148:172.21.64.17:25007:1541950213656                                                              1793260 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:13 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114147:172.21.64.17:25007:1541950213343                                                              1793259 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:13 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114146:172.21.64.17:25007:1541950213033                                                              1793258 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:13 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114119:172.21.64.17:25007:1541950203993                                                              1793257 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:04 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190114118:172.21.64.17:25007:1541950203471                                                              1793256 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 10:30:03 11-NOV-2018 10:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113753:172.21.64.17:25007:1541937634913                                                              1793186 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:35 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113752:172.21.64.17:25007:1541937634616                                                              1793185 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:34 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113751:172.21.64.17:25007:1541937634303                                                              1793184 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:34 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113750:172.21.64.17:25007:1541937634000                                                              1793183 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:34 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113749:172.21.64.17:25007:1541937633703                                                              1793182 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:33 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113748:172.21.64.17:25007:1541937633383                                                              1793181 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:33 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113747:172.21.64.17:25007:1541937633083                                                              1793180 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:33 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113746:172.21.64.17:25007:1541937632673                                                              1793179 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:32 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113745:172.21.64.17:25007:1541937632363                                                              1793178 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:32 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113744:172.21.64.17:25007:1541937632068                                                              1793177 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:32 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113743:172.21.64.17:25007:1541937631763                                                              1793176 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:31 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113742:172.21.64.17:25007:1541937631460                                                              1793175 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:31 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113715:172.21.64.17:25007:1541937622212                                                              1793174 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:22 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113714:172.21.64.17:25007:1541937621907                                                              1793173 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:22 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113709:172.21.64.17:25007:1541937620412                                                              1793172 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:20 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113707:172.21.64.17:25007:1541937619832                                                              1793171 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:19 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113706:172.21.64.17:25007:1541937619458                                                              1793170 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:19 11-NOV-2018 07:01:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113699:172.21.64.17:25007:1541937617332                                                              1793169 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:17 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113691:172.21.64.17:25007:1541937615072                                                              1793168 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:15 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113688:172.21.64.17:25007:1541937614199                                                              1793167 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:14 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113687:172.21.64.17:25007:1541937613892                                                              1793166 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:14 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113686:172.21.64.17:25007:1541937613581                                                              1793165 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:13 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113685:172.21.64.17:25007:1541937613262                                                              1793164 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:13 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113684:172.21.64.17:25007:1541937612951                                                              1793163 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:13 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113680:172.21.64.17:25007:1541937611785                                                              1793162 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:11 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113679:172.21.64.17:25007:1541937611482                                                              1793161 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:11 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113678:172.21.64.17:25007:1541937611172                                                              1793160 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:11 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113669:172.21.64.17:25007:1541937608422                                                              1793159 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:08 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113668:172.21.64.17:25007:1541937608100                                                              1793158 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:08 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113667:172.21.64.17:25007:1541937607792                                                              1793157 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:07 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113666:172.21.64.17:25007:1541937607477                                                              1793156 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:07 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113665:172.21.64.17:25007:1541937607112                                                              1793155 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:07 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113664:172.21.64.17:25007:1541937606783                                                              1793154 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:06 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113663:172.21.64.17:25007:1541937606470                                                              1793153 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:06 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190113662:172.21.64.17:25007:1541937606161                                                              1793152 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 07:00:06 11-NOV-2018 07:00:18                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108283:172.21.64.17:25007:1541925074585                                                              1791905 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:14 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108282:172.21.64.17:25007:1541925074271                                                              1791904 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:14 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108281:172.21.64.17:25007:1541925073945                                                              1791903 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:14 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108280:172.21.64.17:25007:1541925073635                                                              1791902 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:13 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108279:172.21.64.17:25007:1541925073325                                                              1791901 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:13 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108278:172.21.64.17:25007:1541925072975                                                              1791900 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:13 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108277:172.21.64.17:25007:1541925072643                                                              1791899 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:12 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108276:172.21.64.17:25007:1541925072315                                                              1791898 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:12 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108275:172.21.64.17:25007:1541925071990                                                              1791897 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:12 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108274:172.21.64.17:25007:1541925071665                                                              1791896 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:11 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108273:172.21.64.17:25007:1541925071347                                                              1791895 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:11 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108272:172.21.64.17:25007:1541925071026                                                              1791894 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:11 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108245:172.21.64.17:25007:1541925059934                                                              1791893 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:31:00 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108244:172.21.64.17:25007:1541925059625                                                              1791892 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:59 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108239:172.21.64.17:25007:1541925057625                                                              1791891 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:57 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108237:172.21.64.17:25007:1541925057005                                                              1791890 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:57 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108236:172.21.64.17:25007:1541925056684                                                              1791889 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:56 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108229:172.21.64.17:25007:1541925054505                                                              1791888 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:54 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108221:172.21.64.17:25007:1541925052115                                                              1791887 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:52 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108218:172.21.64.17:25007:1541925051095                                                              1791886 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:51 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108217:172.21.64.17:25007:1541925050781                                                              1791885 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:50 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108216:172.21.64.17:25007:1541925050465                                                              1791884 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:50 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108215:172.21.64.17:25007:1541925050131                                                              1791883 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:50 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108214:172.21.64.17:25007:1541925049795                                                              1791882 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:49 11-NOV-2018 03:31:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108210:172.21.64.17:25007:1541925047755                                                              1791881 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:47 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108209:172.21.64.17:25007:1541925047434                                                              1791880 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:47 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108208:172.21.64.17:25007:1541925047125                                                              1791879 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:47 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108199:172.21.64.17:25007:1541925043942                                                              1791878 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:44 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108198:172.21.64.17:25007:1541925043635                                                              1791877 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:43 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108197:172.21.64.17:25007:1541925043293                                                              1791876 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:43 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108196:172.21.64.17:25007:1541925042971                                                              1791875 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:43 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108195:172.21.64.17:25007:1541925042574                                                              1791874 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:42 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108194:172.21.64.17:25007:1541925042221                                                              1791873 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:42 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108193:172.21.64.17:25007:1541925041894                                                              1791872 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:42 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190108192:172.21.64.17:25007:1541925041318                                                              1791871 TIME_OUT                                                                                                                                                                                                                                                                    11-NOV-2018 03:30:41 11-NOV-2018 03:30:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099214:172.21.64.17:25007:1541867410199                                                              1788838 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:10 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099213:172.21.64.17:25007:1541867409814                                                              1788837 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:10 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099212:172.21.64.17:25007:1541867409489                                                              1788836 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:09 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099211:172.21.64.17:25007:1541867409176                                                              1788835 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:09 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099210:172.21.64.17:25007:1541867408849                                                              1788834 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:08 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099209:172.21.64.17:25007:1541867408490                                                              1788833 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:08 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099208:172.21.64.17:25007:1541867408159                                                              1788832 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:08 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099207:172.21.64.17:25007:1541867407827                                                              1788831 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:07 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099206:172.21.64.17:25007:1541867407499                                                              1788830 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:07 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190099205:172.21.64.17:25007:1541867407118                                                              1788829 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 11:30:07 10-NOV-2018 11:31:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097201:172.21.64.17:25007:1541854809898                                                              1788116 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:10 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097200:172.21.64.17:25007:1541854809615                                                              1788115 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:09 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097199:172.21.64.17:25007:1541854809327                                                              1788114 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:09 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097198:172.21.64.17:25007:1541854809035                                                              1788113 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:09 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097197:172.21.64.17:25007:1541854808745                                                              1788112 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:08 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097196:172.21.64.17:25007:1541854808465                                                              1788111 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:08 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097195:172.21.64.17:25007:1541854808158                                                              1788110 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:08 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097194:172.21.64.17:25007:1541854807865                                                              1788109 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:07 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097193:172.21.64.17:25007:1541854807557                                                              1788108 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:07 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190097192:172.21.64.17:25007:1541854807255                                                              1788107 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 08:00:07 10-NOV-2018 08:00:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092724:172.21.64.17:25007:1541842224236                                                              1787290 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:24 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092723:172.21.64.17:25007:1541842223914                                                              1787289 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:24 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092696:172.21.64.17:25007:1541842214976                                                              1787287 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:15 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092695:172.21.64.17:25007:1541842214669                                                              1787286 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:14 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092684:172.21.64.17:25007:1541842211476                                                              1787284 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:11 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092683:172.21.64.17:25007:1541842211180                                                              1787283 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:11 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092682:172.21.64.17:25007:1541842210876                                                              1787282 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:11 10-NOV-2018 04:30:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092681:172.21.64.17:25007:1541842210576                                                              1787281 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:10 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092680:172.21.64.17:25007:1541842210279                                                              1787280 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:10 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092679:172.21.64.17:25007:1541842209986                                                              1787279 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:10 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092678:172.21.64.17:25007:1541842209669                                                              1787278 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:09 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092677:172.21.64.17:25007:1541842209356                                                              1787277 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:09 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092676:172.21.64.17:25007:1541842209050                                                              1787276 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:09 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092675:172.21.64.17:25007:1541842208696                                                              1787275 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 04:30:08 10-NOV-2018 04:30:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092237:172.21.64.17:25007:1541829644582                                                              1786712 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:44 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092236:172.21.64.17:25007:1541829644273                                                              1786711 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:44 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092209:172.21.64.17:25007:1541829634963                                                              1786710 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:35 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092208:172.21.64.17:25007:1541829634653                                                              1786709 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:34 10-NOV-2018 01:01:27                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092203:172.21.64.17:25007:1541829632433                                                              1786708 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:32 10-NOV-2018 01:01:27                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092201:172.21.64.17:25007:1541829631834                                                              1786707 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:31 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092200:172.21.64.17:25007:1541829631533                                                              1786706 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:31 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092193:172.21.64.17:25007:1541829629429                                                              1786705 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:29 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092185:172.21.64.17:25007:1541829627083                                                              1786704 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:27 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092182:172.21.64.17:25007:1541829626172                                                              1786703 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:26 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092181:172.21.64.17:25007:1541829625863                                                              1786702 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:25 10-NOV-2018 01:00:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092180:172.21.64.17:25007:1541829625554                                                              1786701 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:25 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092179:172.21.64.17:25007:1541829625233                                                              1786700 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:25 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092178:172.21.64.17:25007:1541829624908                                                              1786699 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:25 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092174:172.21.64.17:25007:1541829623789                                                              1786698 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:23 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092173:172.21.64.17:25007:1541829623493                                                              1786697 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:23 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092172:172.21.64.17:25007:1541829623182                                                              1786696 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:23 10-NOV-2018 01:01:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092163:172.21.64.17:25007:1541829620374                                                              1786695 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:20 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092162:172.21.64.17:25007:1541829620063                                                              1786694 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:20 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092161:172.21.64.17:25007:1541829619734                                                              1786693 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:19 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092160:172.21.64.17:25007:1541829619433                                                              1786692 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:19 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092159:172.21.64.17:25007:1541829619091                                                              1786691 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:19 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092149:172.21.64.17:25007:1541829615539                                                              1786690 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:15 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092148:172.21.64.17:25007:1541829615232                                                              1786689 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:15 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092147:172.21.64.17:25007:1541829614874                                                              1786688 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:15 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092146:172.21.64.17:25007:1541829614562                                                              1786687 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:14 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092145:172.21.64.17:25007:1541829614237                                                              1786686 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:14 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092141:172.21.64.17:25007:1541829613912                                                              1786685 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:14 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092140:172.21.64.17:25007:1541829613582                                                              1786684 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:13 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092139:172.21.64.17:25007:1541829613252                                                              1786683 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:13 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092138:172.21.64.17:25007:1541829612932                                                              1786682 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:13 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092137:172.21.64.17:25007:1541829612602                                                              1786681 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:12 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092136:172.21.64.17:25007:1541829612232                                                              1786680 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:12 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092135:172.21.64.17:25007:1541829610123                                                              1786679 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:10 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190092134:172.21.64.17:25007:1541829609767                                                              1786678 TIME_OUT                                                                                                                                                                                                                                                                    10-NOV-2018 01:00:09 10-NOV-2018 01:00:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091550:172.21.64.17:25007:1541817050491                                                              1786635 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:50 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091549:172.21.64.17:25007:1541817050200                                                              1786634 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:50 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091522:172.21.64.17:25007:1541817040689                                                              1786633 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:40 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091521:172.21.64.17:25007:1541817040388                                                              1786632 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:40 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091516:172.21.64.17:25007:1541817038884                                                              1786631 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:39 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091514:172.21.64.17:25007:1541817038300                                                              1786630 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:38 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091513:172.21.64.17:25007:1541817038009                                                              1786629 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:38 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091506:172.21.64.17:25007:1541817035937                                                              1786628 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:36 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091498:172.21.64.17:25007:1541817033597                                                              1786627 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:33 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091495:172.21.64.17:25007:1541817032689                                                              1786626 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:32 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091494:172.21.64.17:25007:1541817032376                                                              1786625 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:32 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091493:172.21.64.17:25007:1541817032090                                                              1786624 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:32 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091492:172.21.64.17:25007:1541817031798                                                              1786623 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:31 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091491:172.21.64.17:25007:1541817031499                                                              1786622 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:31 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091487:172.21.64.17:25007:1541817030299                                                              1786621 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:30 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091486:172.21.64.17:25007:1541817029993                                                              1786620 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:30 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091485:172.21.64.17:25007:1541817029700                                                              1786619 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:29 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091476:172.21.64.17:25007:1541817026891                                                              1786618 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:27 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091475:172.21.64.17:25007:1541817026579                                                              1786617 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:26 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091474:172.21.64.17:25007:1541817026275                                                              1786616 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:26 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091473:172.21.64.17:25007:1541817025969                                                              1786615 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:26 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091472:172.21.64.17:25007:1541817025652                                                              1786614 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:25 09-NOV-2018 21:31:26                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091427:172.21.64.17:25007:1541817011537                                                              1786613 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:11 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091426:172.21.64.17:25007:1541817011239                                                              1786612 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:11 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091425:172.21.64.17:25007:1541817010908                                                              1786611 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:11 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091424:172.21.64.17:25007:1541817010599                                                              1786610 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:10 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091423:172.21.64.17:25007:1541817010269                                                              1786609 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:10 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091422:172.21.64.17:25007:1541817009949                                                              1786608 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:10 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091421:172.21.64.17:25007:1541817009593                                                              1786607 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:09 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091420:172.21.64.17:25007:1541817007512                                                              1786606 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:07 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091419:172.21.64.17:25007:1541817007209                                                              1786605 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:07 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091418:172.21.64.17:25007:1541817006893                                                              1786604 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:07 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091417:172.21.64.17:25007:1541817006589                                                              1786603 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:06 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091416:172.21.64.17:25007:1541817006289                                                              1786602 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:06 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190091415:172.21.64.17:25007:1541817005959                                                              1786601 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 21:30:06 09-NOV-2018 21:30:21                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190078782:172.21.64.17:25007:1541801604774                                                              1785214 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 17:13:24 09-NOV-2018 17:14:00                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072117:172.21.64.17:25007:1541791812547                                                              1783647 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:12 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072116:172.21.64.17:25007:1541791812231                                                              1783646 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:12 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072115:172.21.64.17:25007:1541791811926                                                              1783645 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:12 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072114:172.21.64.17:25007:1541791811641                                                              1783644 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:11 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072113:172.21.64.17:25007:1541791811347                                                              1783643 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:11 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072112:172.21.64.17:25007:1541791811011                                                              1783642 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:11 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072111:172.21.64.17:25007:1541791810700                                                              1783641 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:10 09-NOV-2018 14:30:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072110:172.21.64.17:25007:1541791810411                                                              1783640 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:10 09-NOV-2018 14:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072109:172.21.64.17:25007:1541791810099                                                              1783639 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:10 09-NOV-2018 14:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072108:172.21.64.17:25007:1541791809781                                                              1783638 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:09 09-NOV-2018 14:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072107:172.21.64.17:25007:1541791809452                                                              1783637 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:09 09-NOV-2018 14:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072106:172.21.64.17:25007:1541791809151                                                              1783636 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:09 09-NOV-2018 14:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190072105:172.21.64.17:25007:1541791808854                                                              1783635 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 14:30:08 09-NOV-2018 14:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065955:172.21.64.17:25007:1541779417276                                                              1781964 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:03:37 09-NOV-2018 11:03:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065943:172.21.64.17:25007:1541779416592                                                              1781963 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:03:36 09-NOV-2018 11:03:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065955:172.21.64.17:25007:1541779342655                                                              1781959 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:02:22 09-NOV-2018 11:02:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065954:172.21.64.17:25007:1541779298723                                                              1781956 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:38 09-NOV-2018 11:02:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065953:172.21.64.17:25007:1541779297685                                                              1781955 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:37 09-NOV-2018 11:02:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065952:172.21.64.17:25007:1541779295502                                                              1781953 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:35 09-NOV-2018 11:02:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065951:172.21.64.17:25007:1541779291876                                                              1781952 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:31 09-NOV-2018 11:01:32                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065950:172.21.64.17:25007:1541779284902                                                              1781951 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:25 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065949:172.21.64.17:25007:1541779283290                                                              1781950 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:23 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065948:172.21.64.17:25007:1541779281302                                                              1781949 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:21 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065947:172.21.64.17:25007:1541779278698                                                              1781947 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:18 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065946:172.21.64.17:25007:1541779276591                                                              1781946 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:16 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065945:172.21.64.17:25007:1541779270841                                                              1781945 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:01:10 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190065944:172.21.64.17:25007:1541779238721                                                              1781943 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 11:00:38 09-NOV-2018 11:01:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061236:172.21.64.17:25007:1541766618371                                                              1780804 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:18 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061235:172.21.64.17:25007:1541766618083                                                              1780803 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:18 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061234:172.21.64.17:25007:1541766617793                                                              1780802 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:17 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061233:172.21.64.17:25007:1541766617498                                                              1780801 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:17 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061232:172.21.64.17:25007:1541766617203                                                              1780800 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:17 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061231:172.21.64.17:25007:1541766616884                                                              1780799 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:17 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061230:172.21.64.17:25007:1541766616583                                                              1780798 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:16 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061229:172.21.64.17:25007:1541766616281                                                              1780797 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:16 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061228:172.21.64.17:25007:1541766615983                                                              1780796 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:16 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061227:172.21.64.17:25007:1541766615680                                                              1780795 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:15 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061226:172.21.64.17:25007:1541766615383                                                              1780794 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:15 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061225:172.21.64.17:25007:1541766615094                                                              1780793 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:15 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061224:172.21.64.17:25007:1541766614783                                                              1780792 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:14 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061197:172.21.64.17:25007:1541766607425                                                              1780791 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:07 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190061196:172.21.64.17:25007:1541766607013                                                              1780790 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 07:30:07 09-NOV-2018 07:31:06                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055720:172.21.64.17:25007:1541754033646                                                              1779444 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:33 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055719:172.21.64.17:25007:1541754033349                                                              1779443 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:33 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055718:172.21.64.17:25007:1541754033057                                                              1779442 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:33 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055717:172.21.64.17:25007:1541754032770                                                              1779441 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:32 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055716:172.21.64.17:25007:1541754032476                                                              1779440 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:32 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055715:172.21.64.17:25007:1541754032190                                                              1779439 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:32 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055714:172.21.64.17:25007:1541754031890                                                              1779438 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:32 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055713:172.21.64.17:25007:1541754031599                                                              1779437 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:31 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055712:172.21.64.17:25007:1541754031307                                                              1779436 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:31 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055711:172.21.64.17:25007:1541754031020                                                              1779435 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:31 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055710:172.21.64.17:25007:1541754030717                                                              1779434 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:30 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055709:172.21.64.17:25007:1541754030410                                                              1779433 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:30 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055708:172.21.64.17:25007:1541754030106                                                              1779432 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:30 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055681:172.21.64.17:25007:1541754022829                                                              1779431 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:22 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055680:172.21.64.17:25007:1541754022525                                                              1779430 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:22 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055675:172.21.64.17:25007:1541754021260                                                              1779429 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:21 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055673:172.21.64.17:25007:1541754020710                                                              1779428 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:20 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055672:172.21.64.17:25007:1541754020395                                                              1779427 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:20 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055665:172.21.64.17:25007:1541754018568                                                              1779426 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:18 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055657:172.21.64.17:25007:1541754016563                                                              1779425 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:16 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055654:172.21.64.17:25007:1541754015769                                                              1779424 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:15 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055653:172.21.64.17:25007:1541754015477                                                              1779423 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:15 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055652:172.21.64.17:25007:1541754015188                                                              1779422 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:15 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055651:172.21.64.17:25007:1541754014888                                                              1779421 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:15 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055650:172.21.64.17:25007:1541754014599                                                              1779420 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:14 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055646:172.21.64.17:25007:1541754013529                                                              1779419 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:13 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055645:172.21.64.17:25007:1541754013189                                                              1779418 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:13 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055644:172.21.64.17:25007:1541754012859                                                              1779417 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:12 09-NOV-2018 04:01:16                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055635:172.21.64.17:25007:1541754010449                                                              1779416 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:10 09-NOV-2018 04:00:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055634:172.21.64.17:25007:1541754010152                                                              1779415 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:10 09-NOV-2018 04:00:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055633:172.21.64.17:25007:1541754009859                                                              1779414 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:09 09-NOV-2018 04:00:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055632:172.21.64.17:25007:1541754009557                                                              1779413 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:09 09-NOV-2018 04:00:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055631:172.21.64.17:25007:1541754009189                                                              1779412 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 04:00:09 09-NOV-2018 04:00:11                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055573:172.21.64.17:25007:1541741447403                                                              1779405 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:47 09-NOV-2018 00:31:37                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055572:172.21.64.17:25007:1541741447108                                                              1779404 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:47 09-NOV-2018 00:31:37                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055571:172.21.64.17:25007:1541741446753                                                              1779403 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:46 09-NOV-2018 00:31:37                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055570:172.21.64.17:25007:1541741446464                                                              1779402 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:46 09-NOV-2018 00:31:37                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055569:172.21.64.17:25007:1541741446173                                                              1779401 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:46 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055568:172.21.64.17:25007:1541741445835                                                              1779400 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:45 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055567:172.21.64.17:25007:1541741445533                                                              1779399 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:45 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055566:172.21.64.17:25007:1541741445216                                                              1779398 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:45 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055565:172.21.64.17:25007:1541741444847                                                              1779397 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:44 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055564:172.21.64.17:25007:1541741444533                                                              1779396 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:44 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055563:172.21.64.17:25007:1541741444227                                                              1779395 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:44 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055562:172.21.64.17:25007:1541741443913                                                              1779394 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:44 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055561:172.21.64.17:25007:1541741443544                                                              1779393 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:43 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055534:172.21.64.17:25007:1541741435713                                                              1779392 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:35 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055533:172.21.64.17:25007:1541741435413                                                              1779391 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:35 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055528:172.21.64.17:25007:1541741434113                                                              1779390 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:34 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055526:172.21.64.17:25007:1541741433573                                                              1779389 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:33 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055525:172.21.64.17:25007:1541741433205                                                              1779388 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:33 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055518:172.21.64.17:25007:1541741431253                                                              1779387 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:31 09-NOV-2018 00:31:36                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055510:172.21.64.17:25007:1541741429223                                                              1779386 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:29 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055507:172.21.64.17:25007:1541741428350                                                              1779385 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:28 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055506:172.21.64.17:25007:1541741428053                                                              1779384 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:28 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055505:172.21.64.17:25007:1541741427621                                                              1779383 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:27 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055504:172.21.64.17:25007:1541741427273                                                              1779382 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:27 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055503:172.21.64.17:25007:1541741426970                                                              1779381 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:27 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055499:172.21.64.17:25007:1541741425892                                                              1779380 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:26 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055498:172.21.64.17:25007:1541741425603                                                              1779379 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:25 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055497:172.21.64.17:25007:1541741425284                                                              1779378 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:25 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055488:172.21.64.17:25007:1541741422882                                                              1779377 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:23 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055487:172.21.64.17:25007:1541741422540                                                              1779376 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:22 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055486:172.21.64.17:25007:1541741422242                                                              1779375 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:22 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055485:172.21.64.17:25007:1541741421936                                                              1779374 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:22 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:190055484:172.21.64.17:25007:1541741421595                                                              1779373 TIME_OUT                                                                                                                                                                                                                                                                    09-NOV-2018 00:30:21 09-NOV-2018 00:30:31                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992571:172.21.64.17:25007:1541728863349                                                              1778626 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:03 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992570:172.21.64.17:25007:1541728863043                                                              1778625 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:03 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992569:172.21.64.17:25007:1541728862749                                                              1778624 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:02 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992568:172.21.64.17:25007:1541728862446                                                              1778623 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:02 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992567:172.21.64.17:25007:1541728862149                                                              1778622 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:02 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992566:172.21.64.17:25007:1541728861844                                                              1778621 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:01 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992565:172.21.64.17:25007:1541728861539                                                              1778620 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:01 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992564:172.21.64.17:25007:1541728861232                                                              1778619 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:01 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992563:172.21.64.17:25007:1541728860929                                                              1778618 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:01 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992562:172.21.64.17:25007:1541728860633                                                              1778617 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:00 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992561:172.21.64.17:25007:1541728860319                                                              1778616 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:00 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992560:172.21.64.17:25007:1541728860006                                                              1778615 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:01:00 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992559:172.21.64.17:25007:1541728859709                                                              1778614 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:59 08-NOV-2018 21:01:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992532:172.21.64.17:25007:1541728851819                                                              1778613 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:51 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992531:172.21.64.17:25007:1541728851515                                                              1778612 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:51 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992525:172.21.64.17:25007:1541728850129                                                              1778611 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:50 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992502:172.21.64.17:25007:1541728848639                                                              1778609 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:48 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992501:172.21.64.17:25007:1541728848319                                                              1778608 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:48 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992494:172.21.64.17:25007:1541728846419                                                              1778607 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:46 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992486:172.21.64.17:25007:1541728844409                                                              1778606 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:44 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992483:172.21.64.17:25007:1541728843567                                                              1778605 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:43 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992482:172.21.64.17:25007:1541728843269                                                              1778604 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:43 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992481:172.21.64.17:25007:1541728842954                                                              1778603 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:43 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992480:172.21.64.17:25007:1541728842659                                                              1778602 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:42 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992479:172.21.64.17:25007:1541728842359                                                              1778601 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:42 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992475:172.21.64.17:25007:1541728841265                                                              1778600 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:41 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992474:172.21.64.17:25007:1541728840892                                                              1778599 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:41 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992473:172.21.64.17:25007:1541728840579                                                              1778598 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:40 08-NOV-2018 21:00:53                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992464:172.21.64.17:25007:1541728838176                                                              1778597 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:38 08-NOV-2018 21:00:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992463:172.21.64.17:25007:1541728837879                                                              1778596 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:38 08-NOV-2018 21:00:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992462:172.21.64.17:25007:1541728837579                                                              1778595 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:37 08-NOV-2018 21:00:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992461:172.21.64.17:25007:1541728837273                                                              1778594 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:37 08-NOV-2018 21:00:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189992460:172.21.64.17:25007:1541728836949                                                              1778593 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 21:00:37 08-NOV-2018 21:00:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976337:172.21.64.17:25007:1541705409263                                                              1775376 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:09 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976336:172.21.64.17:25007:1541705408964                                                              1775375 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:09 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976335:172.21.64.17:25007:1541705408653                                                              1775374 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:08 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976334:172.21.64.17:25007:1541705408364                                                              1775373 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:08 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976333:172.21.64.17:25007:1541705408073                                                              1775372 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:08 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976332:172.21.64.17:25007:1541705407765                                                              1775371 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:07 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976331:172.21.64.17:25007:1541705407458                                                              1775370 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:07 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976330:172.21.64.17:25007:1541705407168                                                              1775369 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:07 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976329:172.21.64.17:25007:1541705406873                                                              1775368 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:06 08-NOV-2018 14:30:07                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976328:172.21.64.17:25007:1541705406573                                                              1775367 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:06 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189976327:172.21.64.17:25007:1541705406263                                                              1775366 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 14:30:06 08-NOV-2018 14:30:49                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969348:172.21.64.17:25007:1541692811613                                                              1773643 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:11 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969347:172.21.64.17:25007:1541692811311                                                              1773642 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:11 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969346:172.21.64.17:25007:1541692811023                                                              1773641 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:11 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969345:172.21.64.17:25007:1541692810721                                                              1773640 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:10 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969344:172.21.64.17:25007:1541692810423                                                              1773639 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:10 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969343:172.21.64.17:25007:1541692810069                                                              1773638 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:10 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969342:172.21.64.17:25007:1541692809633                                                              1773637 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:09 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969341:172.21.64.17:25007:1541692809320                                                              1773636 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:09 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969340:172.21.64.17:25007:1541692809023                                                              1773635 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:09 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969339:172.21.64.17:25007:1541692808720                                                              1773634 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:08 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189969338:172.21.64.17:25007:1541692808373                                                              1773633 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 11:00:08 08-NOV-2018 11:00:33                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189967215:172.21.64.17:25007:1541686848864                                                              1772936 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 09:20:48 08-NOV-2018 09:20:51                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966119:172.21.64.17:25007:1541680220966                                                              1772516 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:21 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966109:172.21.64.17:25007:1541680218346                                                              1772515 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:18 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966108:172.21.64.17:25007:1541680218049                                                              1772514 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:18 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966107:172.21.64.17:25007:1541680217746                                                              1772513 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:17 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966106:172.21.64.17:25007:1541680217448                                                              1772512 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:17 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966105:172.21.64.17:25007:1541680217146                                                              1772511 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:17 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966104:172.21.64.17:25007:1541680216839                                                              1772510 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:16 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966103:172.21.64.17:25007:1541680216546                                                              1772509 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:16 08-NOV-2018 07:30:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966102:172.21.64.17:25007:1541680216246                                                              1772508 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:16 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966101:172.21.64.17:25007:1541680215956                                                              1772507 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:16 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966100:172.21.64.17:25007:1541680215656                                                              1772506 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:15 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966099:172.21.64.17:25007:1541680215356                                                              1772505 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:15 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966098:172.21.64.17:25007:1541680215057                                                              1772504 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:15 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966071:172.21.64.17:25007:1541680207856                                                              1772503 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:07 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189966070:172.21.64.17:25007:1541680207540                                                              1772502 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 07:30:07 08-NOV-2018 07:30:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961462:172.21.64.17:25007:1541667635472                                                              1771225 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:35 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961452:172.21.64.17:25007:1541667632913                                                              1771224 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:33 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961451:172.21.64.17:25007:1541667632625                                                              1771223 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:32 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961450:172.21.64.17:25007:1541667632313                                                              1771222 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:32 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961449:172.21.64.17:25007:1541667632015                                                              1771221 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:32 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961448:172.21.64.17:25007:1541667631712                                                              1771220 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:31 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961447:172.21.64.17:25007:1541667631415                                                              1771219 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:31 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961446:172.21.64.17:25007:1541667631119                                                              1771218 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:31 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961445:172.21.64.17:25007:1541667630815                                                              1771217 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:30 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961444:172.21.64.17:25007:1541667630513                                                              1771216 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:30 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961443:172.21.64.17:25007:1541667630214                                                              1771215 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:30 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961442:172.21.64.17:25007:1541667629925                                                              1771214 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:30 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961441:172.21.64.17:25007:1541667629618                                                              1771213 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:29 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961414:172.21.64.17:25007:1541667622344                                                              1771212 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:22 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961413:172.21.64.17:25007:1541667622040                                                              1771211 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:22 08-NOV-2018 04:00:59                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961408:172.21.64.17:25007:1541667620735                                                              1771210 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:20 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961406:172.21.64.17:25007:1541667620194                                                              1771209 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:20 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961405:172.21.64.17:25007:1541667619880                                                              1771208 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:20 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961398:172.21.64.17:25007:1541667618155                                                              1771207 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:18 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961390:172.21.64.17:25007:1541667616165                                                              1771206 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:16 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961387:172.21.64.17:25007:1541667615375                                                              1771205 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:15 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961386:172.21.64.17:25007:1541667615075                                                              1771204 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:15 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961385:172.21.64.17:25007:1541667614767                                                              1771203 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:14 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961384:172.21.64.17:25007:1541667614465                                                              1771202 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:14 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961383:172.21.64.17:25007:1541667614169                                                              1771201 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:14 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961379:172.21.64.17:25007:1541667613144                                                              1771200 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:13 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961378:172.21.64.17:25007:1541667612848                                                              1771199 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:12 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961377:172.21.64.17:25007:1541667612544                                                              1771198 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:12 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961368:172.21.64.17:25007:1541667610281                                                              1771197 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:10 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961367:172.21.64.17:25007:1541667609974                                                              1771196 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:10 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961366:172.21.64.17:25007:1541667609672                                                              1771195 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:09 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961365:172.21.64.17:25007:1541667609354                                                              1771194 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:09 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961364:172.21.64.17:25007:1541667608964                                                              1771193 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 04:00:09 08-NOV-2018 04:00:58                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961312:172.21.64.17:25007:1541655061314                                                              1770871 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:31:01 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961302:172.21.64.17:25007:1541655058075                                                              1770870 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:58 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961301:172.21.64.17:25007:1541655057729                                                              1770869 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:57 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961300:172.21.64.17:25007:1541655057415                                                              1770868 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:57 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961299:172.21.64.17:25007:1541655057097                                                              1770867 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:57 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961298:172.21.64.17:25007:1541655056805                                                              1770866 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:56 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961297:172.21.64.17:25007:1541655056490                                                              1770865 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:56 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961296:172.21.64.17:25007:1541655056165                                                              1770864 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:56 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961295:172.21.64.17:25007:1541655055823                                                              1770863 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:55 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961294:172.21.64.17:25007:1541655055265                                                              1770862 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:55 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961293:172.21.64.17:25007:1541655054821                                                              1770861 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:54 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961292:172.21.64.17:25007:1541655054425                                                              1770860 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:54 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961291:172.21.64.17:25007:1541655054036                                                              1770859 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:54 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961264:172.21.64.17:25007:1541655046115                                                              1770858 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:46 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961263:172.21.64.17:25007:1541655045753                                                              1770857 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:45 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961258:172.21.64.17:25007:1541655044468                                                              1770856 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:44 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961256:172.21.64.17:25007:1541655043886                                                              1770855 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:44 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961255:172.21.64.17:25007:1541655043565                                                              1770854 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:43 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961248:172.21.64.17:25007:1541655041545                                                              1770853 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:41 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961240:172.21.64.17:25007:1541655039285                                                              1770852 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:39 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961237:172.21.64.17:25007:1541655038175                                                              1770851 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:38 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961236:172.21.64.17:25007:1541655037782                                                              1770850 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:37 08-NOV-2018 00:30:38                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961235:172.21.64.17:25007:1541655037484                                                              1770849 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:37 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961234:172.21.64.17:25007:1541655037161                                                              1770848 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:37 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961233:172.21.64.17:25007:1541655036854                                                              1770847 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:36 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961229:172.21.64.17:25007:1541655035764                                                              1770846 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:35 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961228:172.21.64.17:25007:1541655035458                                                              1770845 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:35 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961227:172.21.64.17:25007:1541655035114                                                              1770844 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:35 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961218:172.21.64.17:25007:1541655032711                                                              1770843 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:32 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961217:172.21.64.17:25007:1541655032412                                                              1770842 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:32 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961216:172.21.64.17:25007:1541655032114                                                              1770841 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:32 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961215:172.21.64.17:25007:1541655031791                                                              1770840 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:31 08-NOV-2018 00:31:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189961214:172.21.64.17:25007:1541655031214                                                              1770839 TIME_OUT                                                                                                                                                                                                                                                                    08-NOV-2018 00:30:31 08-NOV-2018 00:31:30                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928384:172.21.64.17:25007:1541643606288                                                              1766069 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:20:06 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928370:172.21.64.17:25007:1541643600408                                                              1766067 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:20:00 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928369:172.21.64.17:25007:1541643600092                                                              1766066 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:20:00 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928368:172.21.64.17:25007:1541643599757                                                              1766065 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:59 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928367:172.21.64.17:25007:1541643599398                                                              1766064 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:59 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928366:172.21.64.17:25007:1541643599088                                                              1766063 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:59 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928365:172.21.64.17:25007:1541643598757                                                              1766062 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:58 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928364:172.21.64.17:25007:1541643598430                                                              1766061 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:58 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928363:172.21.64.17:25007:1541643598068                                                              1766060 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:58 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928362:172.21.64.17:25007:1541643597758                                                              1766059 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:57 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928361:172.21.64.17:25007:1541643597428                                                              1766058 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:57 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928360:172.21.64.17:25007:1541643597106                                                              1766057 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:57 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928359:172.21.64.17:25007:1541643596757                                                              1766056 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:56 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928331:172.21.64.17:25007:1541643588478                                                              1766055 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:48 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928330:172.21.64.17:25007:1541643588142                                                              1766054 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:48 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928309:172.21.64.17:25007:1541643574857                                                              1766049 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:34 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928307:172.21.64.17:25007:1541643574241                                                              1766048 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:34 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928306:172.21.64.17:25007:1541643573887                                                              1766047 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:34 07-NOV-2018 21:20:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928295:172.21.64.17:25007:1541643568993                                                              1766045 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:29 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928287:172.21.64.17:25007:1541643566847                                                              1766044 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:26 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928264:172.21.64.17:25007:1541643553923                                                              1766039 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:14 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928263:172.21.64.17:25007:1541643553617                                                              1766038 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:13 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928262:172.21.64.17:25007:1541643553297                                                              1766037 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:13 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928261:172.21.64.17:25007:1541643552987                                                              1766036 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:13 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928260:172.21.64.17:25007:1541643552676                                                              1766035 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:12 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928256:172.21.64.17:25007:1541643551625                                                              1766034 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:11 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928255:172.21.64.17:25007:1541643551317                                                              1766033 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:11 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928254:172.21.64.17:25007:1541643550898                                                              1766032 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:11 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928245:172.21.64.17:25007:1541643548515                                                              1766031 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:08 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928240:172.21.64.17:25007:1541643548207                                                              1766030 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:08 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928238:172.21.64.17:25007:1541643547891                                                              1766029 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:08 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928237:172.21.64.17:25007:1541643547580                                                              1766028 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:07 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189928236:172.21.64.17:25007:1541643547217                                                              1766027 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 21:19:07 07-NOV-2018 21:19:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189911523:172.21.64.17:25007:1541630987478                                                              1763186 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 17:49:47 07-NOV-2018 17:50:48                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189904118:172.21.64.17:25007:1541619152387                                                              1761648 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 14:32:32 07-NOV-2018 14:32:34                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901390:172.21.64.17:25007:1541608212111                                                              1759198 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:12 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901389:172.21.64.17:25007:1541608211784                                                              1759197 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:11 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901388:172.21.64.17:25007:1541608211474                                                              1759196 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:11 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901387:172.21.64.17:25007:1541608211144                                                              1759195 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:11 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901386:172.21.64.17:25007:1541608210814                                                              1759194 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:10 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901385:172.21.64.17:25007:1541608210504                                                              1759193 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:10 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901384:172.21.64.17:25007:1541608210198                                                              1759192 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:10 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901383:172.21.64.17:25007:1541608209904                                                              1759191 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:10 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901382:172.21.64.17:25007:1541608209544                                                              1759190 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:09 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901381:172.21.64.17:25007:1541608209244                                                              1759189 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:09 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901380:172.21.64.17:25007:1541608208889                                                              1759188 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:09 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189901379:172.21.64.17:25007:1541608208554                                                              1759187 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 11:30:08 07-NOV-2018 11:30:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897568:172.21.64.17:25007:1541595611915                                                              1757039 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:12 07-NOV-2018 08:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897567:172.21.64.17:25007:1541595611624                                                              1757038 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:11 07-NOV-2018 08:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897566:172.21.64.17:25007:1541595611315                                                              1757037 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:11 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897565:172.21.64.17:25007:1541595611009                                                              1757036 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:11 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897564:172.21.64.17:25007:1541595610715                                                              1757035 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:10 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897563:172.21.64.17:25007:1541595610408                                                              1757034 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:10 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897562:172.21.64.17:25007:1541595610006                                                              1757033 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:10 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897561:172.21.64.17:25007:1541595608596                                                              1757032 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:08 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897560:172.21.64.17:25007:1541595608305                                                              1757031 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:08 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897559:172.21.64.17:25007:1541595608001                                                              1757030 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:08 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897558:172.21.64.17:25007:1541595607695                                                              1757029 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:07 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189897557:172.21.64.17:25007:1541595607366                                                              1757028 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 08:00:07 07-NOV-2018 08:00:28                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892375:172.21.64.17:25007:1541583063608                                                              1756095 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:03 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892374:172.21.64.17:25007:1541583063300                                                              1756094 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:03 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892373:172.21.64.17:25007:1541583062998                                                              1756093 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:03 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892372:172.21.64.17:25007:1541583062696                                                              1756092 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:02 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892371:172.21.64.17:25007:1541583062378                                                              1756091 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:02 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892366:172.21.64.17:25007:1541583062039                                                              1756090 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:02 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892364:172.21.64.17:25007:1541583061003                                                              1756089 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:31:01 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892363:172.21.64.17:25007:1541583050809                                                              1756088 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:30:50 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892362:172.21.64.17:25007:1541583050488                                                              1756087 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:30:50 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892361:172.21.64.17:25007:1541583050101                                                              1756086 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:30:50 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892360:172.21.64.17:25007:1541583049798                                                              1756085 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:30:49 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189892359:172.21.64.17:25007:1541583029498                                                              1756084 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:30:29 07-NOV-2018 04:31:24                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891765:172.21.64.17:25007:1541581208822                                                              1755650 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:00:08 07-NOV-2018 04:00:38                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891764:172.21.64.17:25007:1541581208190                                                              1755649 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 04:00:08 07-NOV-2018 04:00:38                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891747:172.21.64.17:25007:1541570412573                                                              1755648 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:12 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891746:172.21.64.17:25007:1541570412251                                                              1755647 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:12 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891745:172.21.64.17:25007:1541570411823                                                              1755646 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:12 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891744:172.21.64.17:25007:1541570411513                                                              1755645 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:11 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891743:172.21.64.17:25007:1541570411213                                                              1755644 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:11 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891742:172.21.64.17:25007:1541570410902                                                              1755643 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:11 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891741:172.21.64.17:25007:1541570410583                                                              1755642 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:10 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891740:172.21.64.17:25007:1541570410258                                                              1755641 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:10 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891739:172.21.64.17:25007:1541570409903                                                              1755640 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:10 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891738:172.21.64.17:25007:1541570409577                                                              1755639 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:09 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891737:172.21.64.17:25007:1541570409253                                                              1755638 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:09 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891736:172.21.64.17:25007:1541570408926                                                              1755637 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 01:00:09 07-NOV-2018 01:00:29                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891698:172.21.64.17:25007:1541568647514                                                              1755636 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:47 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891697:172.21.64.17:25007:1541568647206                                                              1755635 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:47 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891692:172.21.64.17:25007:1541568645712                                                              1755634 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:45 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891690:172.21.64.17:25007:1541568645170                                                              1755633 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:45 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891689:172.21.64.17:25007:1541568644876                                                              1755632 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:45 07-NOV-2018 00:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891682:172.21.64.17:25007:1541568642956                                                              1755631 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:43 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891674:172.21.64.17:25007:1541568639932                                                              1755630 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:40 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891671:172.21.64.17:25007:1541568639116                                                              1755629 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:39 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891670:172.21.64.17:25007:1541568638796                                                              1755628 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:38 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891669:172.21.64.17:25007:1541568638476                                                              1755627 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:38 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891668:172.21.64.17:25007:1541568638145                                                              1755626 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:38 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891667:172.21.64.17:25007:1541568637456                                                              1755625 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:37 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891663:172.21.64.17:25007:1541568636356                                                              1755624 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:36 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891662:172.21.64.17:25007:1541568636024                                                              1755623 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:36 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891661:172.21.64.17:25007:1541568635586                                                              1755622 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:35 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891652:172.21.64.17:25007:1541568633229                                                              1755621 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:33 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891651:172.21.64.17:25007:1541568632926                                                              1755620 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:33 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891650:172.21.64.17:25007:1541568632616                                                              1755619 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:32 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891649:172.21.64.17:25007:1541568632266                                                              1755618 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:32 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189891648:172.21.64.17:25007:1541568631759                                                              1755617 TIME_OUT                                                                                                                                                                                                                                                                    07-NOV-2018 00:30:31 07-NOV-2018 00:31:23                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870573:172.21.64.17:25007:1541557807689                                                              1754993 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:07 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870572:172.21.64.17:25007:1541557807403                                                              1754992 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:07 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870571:172.21.64.17:25007:1541557807109                                                              1754991 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:07 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870570:172.21.64.17:25007:1541557806818                                                              1754990 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:06 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870569:172.21.64.17:25007:1541557806524                                                              1754989 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:06 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870568:172.21.64.17:25007:1541557806239                                                              1754988 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:06 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870567:172.21.64.17:25007:1541557805932                                                              1754987 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:06 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870566:172.21.64.17:25007:1541557805643                                                              1754986 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:05 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870565:172.21.64.17:25007:1541557805359                                                              1754985 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:05 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870564:172.21.64.17:25007:1541557805059                                                              1754984 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:05 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870563:172.21.64.17:25007:1541557804769                                                              1754983 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:04 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189870562:172.21.64.17:25007:1541557804449                                                              1754982 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:30:04 06-NOV-2018 21:30:50                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849350:172.21.64.17:25007:1541556031562                                                              1754970 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:31 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849349:172.21.64.17:25007:1541556031267                                                              1754969 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:31 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849344:172.21.64.17:25007:1541556030007                                                              1754968 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:30 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849342:172.21.64.17:25007:1541556029492                                                              1754967 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:29 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849341:172.21.64.17:25007:1541556029166                                                              1754966 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:29 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849334:172.21.64.17:25007:1541556027359                                                              1754965 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:27 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849326:172.21.64.17:25007:1541556025370                                                              1754964 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:25 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849323:172.21.64.17:25007:1541556024544                                                              1754963 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:24 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849322:172.21.64.17:25007:1541556024232                                                              1754962 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:24 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849321:172.21.64.17:25007:1541556023923                                                              1754961 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:24 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849320:172.21.64.17:25007:1541556023632                                                              1754960 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:23 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849319:172.21.64.17:25007:1541556023332                                                              1754959 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:23 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849315:172.21.64.17:25007:1541556022303                                                              1754958 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:22 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849314:172.21.64.17:25007:1541556021982                                                              1754957 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:22 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849313:172.21.64.17:25007:1541556021668                                                              1754956 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:21 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849304:172.21.64.17:25007:1541556019472                                                              1754955 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:19 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849303:172.21.64.17:25007:1541556019172                                                              1754954 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:19 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849302:172.21.64.17:25007:1541556018867                                                              1754953 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:18 06-NOV-2018 21:00:19                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189849301:172.21.64.17:25007:1541556018562                                                              1754952 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 21:00:18 06-NOV-2018 21:01:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844082:172.21.64.17:25007:1541545209069                                                              1754388 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:09 06-NOV-2018 18:00:46                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844081:172.21.64.17:25007:1541545208783                                                              1754387 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:08 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844080:172.21.64.17:25007:1541545208496                                                              1754386 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:08 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844079:172.21.64.17:25007:1541545208173                                                              1754385 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:08 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844078:172.21.64.17:25007:1541545207874                                                              1754384 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:08 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844077:172.21.64.17:25007:1541545207588                                                              1754383 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:07 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844076:172.21.64.17:25007:1541545207293                                                              1754382 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:07 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844075:172.21.64.17:25007:1541545206997                                                              1754381 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:07 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844074:172.21.64.17:25007:1541545206693                                                              1754380 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:06 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844073:172.21.64.17:25007:1541545206378                                                              1754379 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:06 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844072:172.21.64.17:25007:1541545206083                                                              1754378 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:06 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189844071:172.21.64.17:25007:1541545205767                                                              1754377 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 18:00:05 06-NOV-2018 18:00:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837954:172.21.64.17:25007:1541532610392                                                              1752579 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:10 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837953:172.21.64.17:25007:1541532610100                                                              1752578 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:10 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837952:172.21.64.17:25007:1541532609789                                                              1752577 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:09 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837951:172.21.64.17:25007:1541532609477                                                              1752576 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:09 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837950:172.21.64.17:25007:1541532609190                                                              1752575 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:09 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837949:172.21.64.17:25007:1541532608873                                                              1752574 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:08 06-NOV-2018 14:30:09                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837948:172.21.64.17:25007:1541532608559                                                              1752573 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:08 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837947:172.21.64.17:25007:1541532608256                                                              1752572 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:08 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837946:172.21.64.17:25007:1541532607919                                                              1752571 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:08 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837945:172.21.64.17:25007:1541532607629                                                              1752570 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:07 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837944:172.21.64.17:25007:1541532607317                                                              1752569 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:07 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837943:172.21.64.17:25007:1541532607009                                                              1752568 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 14:30:07 06-NOV-2018 14:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189837096:172.21.64.17:25007:1541530214166                                                              1752277 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 13:50:14 06-NOV-2018 13:50:39                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831979:172.21.64.17:25007:1541520048068                                                              1750679 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:48 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831978:172.21.64.17:25007:1541520047751                                                              1750678 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:47 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831974:172.21.64.17:25007:1541520047040                                                              1750676 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:47 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831973:172.21.64.17:25007:1541520046733                                                              1750675 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:46 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831972:172.21.64.17:25007:1541520046428                                                              1750674 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:46 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831970:172.21.64.17:25007:1541520046118                                                              1750673 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:46 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831969:172.21.64.17:25007:1541520045808                                                              1750672 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:45 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831968:172.21.64.17:25007:1541520045495                                                              1750671 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:45 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831967:172.21.64.17:25007:1541520045178                                                              1750670 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:45 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831966:172.21.64.17:25007:1541520044847                                                              1750669 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:44 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831965:172.21.64.17:25007:1541520044536                                                              1750668 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:44 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189831964:172.21.64.17:25007:1541520044208                                                              1750667 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 11:00:44 06-NOV-2018 11:01:35                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828064:172.21.64.17:25007:1541507431930                                                              1749196 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:32 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828063:172.21.64.17:25007:1541507431605                                                              1749195 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:31 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828062:172.21.64.17:25007:1541507431290                                                              1749194 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:31 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828061:172.21.64.17:25007:1541507430969                                                              1749193 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:31 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828060:172.21.64.17:25007:1541507430670                                                              1749192 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:30 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828059:172.21.64.17:25007:1541507430363                                                              1749191 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:30 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828058:172.21.64.17:25007:1541507430070                                                              1749190 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:30 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828057:172.21.64.17:25007:1541507429744                                                              1749189 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:29 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828056:172.21.64.17:25007:1541507429450                                                              1749188 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:29 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828055:172.21.64.17:25007:1541507429143                                                              1749187 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:29 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828054:172.21.64.17:25007:1541507428860                                                              1749186 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:28 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828053:172.21.64.17:25007:1541507428543                                                              1749185 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:28 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828032:172.21.64.17:25007:1541507421870                                                              1749184 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:21 06-NOV-2018 07:30:22                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189828031:172.21.64.17:25007:1541507421556                                                              1749183 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 07:30:21 06-NOV-2018 07:30:45                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823244:172.21.64.17:25007:1541494844718                                                              1747817 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:44 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823243:172.21.64.17:25007:1541494844430                                                              1747816 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:44 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823242:172.21.64.17:25007:1541494844119                                                              1747815 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:44 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823241:172.21.64.17:25007:1541494843830                                                              1747814 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:43 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823240:172.21.64.17:25007:1541494843539                                                              1747813 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:43 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823239:172.21.64.17:25007:1541494843250                                                              1747812 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:43 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823238:172.21.64.17:25007:1541494842949                                                              1747811 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:43 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823237:172.21.64.17:25007:1541494842638                                                              1747810 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:42 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823236:172.21.64.17:25007:1541494842340                                                              1747809 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:42 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823235:172.21.64.17:25007:1541494842022                                                              1747808 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:42 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823234:172.21.64.17:25007:1541494841740                                                              1747807 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:41 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823233:172.21.64.17:25007:1541494841429                                                              1747806 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:41 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823212:172.21.64.17:25007:1541494835458                                                              1747805 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:35 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823211:172.21.64.17:25007:1541494835160                                                              1747804 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:35 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823207:172.21.64.17:25007:1541494834130                                                              1747803 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:34 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823205:172.21.64.17:25007:1541494833510                                                              1747802 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:33 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823204:172.21.64.17:25007:1541494833197                                                              1747801 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:33 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823197:172.21.64.17:25007:1541494831415                                                              1747800 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:31 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823189:172.21.64.17:25007:1541494829400                                                              1747799 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:29 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823186:172.21.64.17:25007:1541494828604                                                              1747798 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:28 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823185:172.21.64.17:25007:1541494828310                                                              1747797 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:28 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823184:172.21.64.17:25007:1541494828007                                                              1747796 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:28 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823183:172.21.64.17:25007:1541494827690                                                              1747795 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:27 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823182:172.21.64.17:25007:1541494827393                                                              1747794 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:27 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823178:172.21.64.17:25007:1541494826310                                                              1747793 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:26 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823177:172.21.64.17:25007:1541494826000                                                              1747792 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:26 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823176:172.21.64.17:25007:1541494825653                                                              1747791 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:25 06-NOV-2018 04:01:25                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823167:172.21.64.17:25007:1541494813158                                                              1747790 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:13 06-NOV-2018 04:00:20                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823166:172.21.64.17:25007:1541494812860                                                              1747789 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:12 06-NOV-2018 04:00:20                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823165:172.21.64.17:25007:1541494812568                                                              1747788 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:12 06-NOV-2018 04:00:20                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189823164:172.21.64.17:25007:1541494812130                                                              1747787 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 04:00:12 06-NOV-2018 04:00:20                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820324:172.21.64.17:25007:1541482299565                                                              1747465 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:39 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820323:172.21.64.17:25007:1541482299236                                                              1747464 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:39 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820322:172.21.64.17:25007:1541482298905                                                              1747463 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:39 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820321:172.21.64.17:25007:1541482298570                                                              1747462 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:38 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820320:172.21.64.17:25007:1541482298256                                                              1747461 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:38 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820319:172.21.64.17:25007:1541482297929                                                              1747459 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:38 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820318:172.21.64.17:25007:1541482297575                                                              1747458 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:37 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820317:172.21.64.17:25007:1541482297245                                                              1747457 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:37 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820316:172.21.64.17:25007:1541482296905                                                              1747456 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:37 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820315:172.21.64.17:25007:1541482296562                                                              1747455 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:36 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820314:172.21.64.17:25007:1541482296245                                                              1747454 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:36 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820313:172.21.64.17:25007:1541482295908                                                              1747453 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:36 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820292:172.21.64.17:25007:1541482289396                                                              1747450 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:29 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820291:172.21.64.17:25007:1541482289075                                                              1747449 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:29 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820287:172.21.64.17:25007:1541482287825                                                              1747447 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:27 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820285:172.21.64.17:25007:1541482287245                                                              1747446 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:27 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820282:172.21.64.17:25007:1541482286922                                                              1747445 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:27 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820275:172.21.64.17:25007:1541482284295                                                              1747444 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:24 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820267:172.21.64.17:25007:1541482281945                                                              1747442 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:22 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820264:172.21.64.17:25007:1541482280957                                                              1747441 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:21 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820263:172.21.64.17:25007:1541482280645                                                              1747439 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:20 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820262:172.21.64.17:25007:1541482280305                                                              1747438 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:20 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820261:172.21.64.17:25007:1541482279965                                                              1747437 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:20 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820260:172.21.64.17:25007:1541482279650                                                              1747436 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:19 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820256:172.21.64.17:25007:1541482278460                                                              1747435 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:18 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820255:172.21.64.17:25007:1541482278125                                                              1747434 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:18 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820254:172.21.64.17:25007:1541482277783                                                              1747433 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:17 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820245:172.21.64.17:25007:1541482275218                                                              1747431 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:15 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820244:172.21.64.17:25007:1541482274655                                                              1747430 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:14 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820243:172.21.64.17:25007:1541482274315                                                              1747429 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:14 06-NOV-2018 00:31:41                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189820242:172.21.64.17:25007:1541482273900                                                              1747427 TIME_OUT                                                                                                                                                                                                                                                                    06-NOV-2018 00:31:14 06-NOV-2018 00:31:40                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803255:172.21.64.17:25007:1541435402066                                                              1741524 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:02 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803254:172.21.64.17:25007:1541435401778                                                              1741523 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:01 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803253:172.21.64.17:25007:1541435401494                                                              1741522 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:01 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803252:172.21.64.17:25007:1541435401202                                                              1741521 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:01 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803251:172.21.64.17:25007:1541435400915                                                              1741520 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:01 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803250:172.21.64.17:25007:1541435400633                                                              1741519 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:00 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803249:172.21.64.17:25007:1541435400325                                                              1741517 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:00 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803248:172.21.64.17:25007:1541435400036                                                              1741516 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:30:00 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803247:172.21.64.17:25007:1541435399746                                                              1741515 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:29:59 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803246:172.21.64.17:25007:1541435399430                                                              1741514 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:29:59 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803245:172.21.64.17:25007:1541435399126                                                              1741513 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:29:59 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189803244:172.21.64.17:25007:1541435398816                                                              1741512 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:29:58 05-NOV-2018 11:30:13                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189767053:172.21.64.17:25007:1541433877605                                                              1741079 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 11:04:37 05-NOV-2018 11:05:17                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797415:172.21.64.17:25007:1541422807121                                                              1737754 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:07 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797414:172.21.64.17:25007:1541422806822                                                              1737753 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:06 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797413:172.21.64.17:25007:1541422806496                                                              1737752 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:06 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797412:172.21.64.17:25007:1541422806192                                                              1737751 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:06 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797411:172.21.64.17:25007:1541422805891                                                              1737750 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:06 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797410:172.21.64.17:25007:1541422805592                                                              1737749 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:05 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797409:172.21.64.17:25007:1541422805292                                                              1737748 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:05 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797408:172.21.64.17:25007:1541422804988                                                              1737747 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:05 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797407:172.21.64.17:25007:1541422804684                                                              1737746 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:04 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797406:172.21.64.17:25007:1541422804396                                                              1737745 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:04 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797405:172.21.64.17:25007:1541422804102                                                              1737744 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:04 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189797404:172.21.64.17:25007:1541422803792                                                              1737743 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 08:00:03 05-NOV-2018 08:01:02                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779986:172.21.64.17:25007:1541410243637                                                              1735822 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:43 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779985:172.21.64.17:25007:1541410243346                                                              1735821 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:43 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779984:172.21.64.17:25007:1541410243037                                                              1735820 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:43 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779983:172.21.64.17:25007:1541410242738                                                              1735819 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:42 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779982:172.21.64.17:25007:1541410242445                                                              1735818 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:42 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779981:172.21.64.17:25007:1541410242157                                                              1735817 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:42 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779980:172.21.64.17:25007:1541410241797                                                              1735815 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:41 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779979:172.21.64.17:25007:1541410241491                                                              1735814 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:41 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779978:172.21.64.17:25007:1541410241205                                                              1735813 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:41 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779977:172.21.64.17:25007:1541410240907                                                              1735812 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:41 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779976:172.21.64.17:25007:1541410240621                                                              1735811 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:40 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779975:172.21.64.17:25007:1541410240342                                                              1735810 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:40 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779974:172.21.64.17:25007:1541410240057                                                              1735809 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:40 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189779973:172.21.64.17:25007:1541410239725                                                              1735808 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 04:30:39 05-NOV-2018 04:30:52                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740759:172.21.64.17:25007:1541395843932                                                              1734950 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:44 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740758:172.21.64.17:25007:1541395843540                                                              1734949 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:43 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740757:172.21.64.17:25007:1541395843133                                                              1734948 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:43 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740756:172.21.64.17:25007:1541395842712                                                              1734947 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:42 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740755:172.21.64.17:25007:1541395842322                                                              1734946 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:42 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740754:172.21.64.17:25007:1541395841660                                                              1734945 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:41 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740753:172.21.64.17:25007:1541395841233                                                              1734944 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:41 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740752:172.21.64.17:25007:1541395840818                                                              1734943 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:40 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740751:172.21.64.17:25007:1541395840402                                                              1734942 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:40 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740750:172.21.64.17:25007:1541395839972                                                              1734941 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:40 05-NOV-2018 00:30:57                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740749:172.21.64.17:25007:1541395839532                                                              1734940 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:39 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740748:172.21.64.17:25007:1541395839118                                                              1734939 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:39 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740730:172.21.64.17:25007:1541395832012                                                              1734938 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:32 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740729:172.21.64.17:25007:1541395831411                                                              1734937 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:31 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740709:172.21.64.17:25007:1541395823502                                                              1734936 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:23 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740707:172.21.64.17:25007:1541395822682                                                              1734935 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:22 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740706:172.21.64.17:25007:1541395822264                                                              1734934 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:22 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740699:172.21.64.17:25007:1541395819802                                                              1734933 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:19 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740691:172.21.64.17:25007:1541395816975                                                              1734932 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:17 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740688:172.21.64.17:25007:1541395815622                                                              1734931 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:15 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740687:172.21.64.17:25007:1541395815180                                                              1734930 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:15 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740686:172.21.64.17:25007:1541395814772                                                              1734929 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:14 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740685:172.21.64.17:25007:1541395814332                                                              1734928 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:14 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740684:172.21.64.17:25007:1541395813932                                                              1734927 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:14 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740680:172.21.64.17:25007:1541395812482                                                              1734926 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:12 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740679:172.21.64.17:25007:1541395811943                                                              1734925 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:12 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740678:172.21.64.17:25007:1541395811543                                                              1734924 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:11 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740669:172.21.64.17:25007:1541395808092                                                              1734923 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:08 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740668:172.21.64.17:25007:1541395807694                                                              1734922 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:07 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740667:172.21.64.17:25007:1541395807272                                                              1734921 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:07 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIS:JAM:189740666:172.21.64.17:25007:1541395804920                                                              1734920 TIME_OUT                                                                                                                                                                                                                                                                    05-NOV-2018 00:30:05 05-NOV-2018 00:30:56                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 808 rows selected </t>
+    <t xml:space="preserve">CIS:JAM:190798945:172.21.64.17:25007:1543197661161                                                              1915242 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:01:01 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798944:172.21.64.17:25007:1543197660794                                                              1915241 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:01:00 25-NOV-2018 21:01:01                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798937:172.21.64.17:25007:1543197657395                                                              1915240 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:57 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798936:172.21.64.17:25007:1543197657104                                                              1915239 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:57 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798935:172.21.64.17:25007:1543197656803                                                              1915238 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:56 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798934:172.21.64.17:25007:1543197656514                                                              1915237 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:56 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798933:172.21.64.17:25007:1543197656210                                                              1915236 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:56 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798932:172.21.64.17:25007:1543197655914                                                              1915235 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:56 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798931:172.21.64.17:25007:1543197655604                                                              1915234 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:55 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798928:172.21.64.17:25007:1543197653634                                                              1915233 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:53 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798927:172.21.64.17:25007:1543197653347                                                              1915232 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:53 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798926:172.21.64.17:25007:1543197653054                                                              1915231 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:53 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798923:172.21.64.17:25007:1543197652104                                                              1915230 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:52 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798914:172.21.64.17:25007:1543197649133                                                              1915229 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:49 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798913:172.21.64.17:25007:1543197648834                                                              1915228 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:48 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798886:172.21.64.17:25007:1543197638108                                                              1915227 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:38 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798885:172.21.64.17:25007:1543197637804                                                              1915226 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:37 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798880:172.21.64.17:25007:1543197636204                                                              1915225 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:36 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798878:172.21.64.17:25007:1543197635462                                                              1915224 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:35 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798877:172.21.64.17:25007:1543197635164                                                              1915223 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:35 25-NOV-2018 21:01:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798868:172.21.64.17:25007:1543197632210                                                              1915222 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:32 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798865:172.21.64.17:25007:1543197631253                                                              1915221 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:31 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798864:172.21.64.17:25007:1543197630881                                                              1915220 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:31 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798863:172.21.64.17:25007:1543197630583                                                              1915219 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:30 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798862:172.21.64.17:25007:1543197630287                                                              1915218 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:30 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798861:172.21.64.17:25007:1543197629984                                                              1915217 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:30 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798860:172.21.64.17:25007:1543197629686                                                              1915216 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:29 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798851:172.21.64.17:25007:1543197626723                                                              1915215 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:26 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798850:172.21.64.17:25007:1543197626434                                                              1915214 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:26 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798849:172.21.64.17:25007:1543197626143                                                              1915213 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:26 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798848:172.21.64.17:25007:1543197625844                                                              1915212 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:25 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798847:172.21.64.17:25007:1543197625553                                                              1915211 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:25 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798846:172.21.64.17:25007:1543197625232                                                              1915210 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:25 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798845:172.21.64.17:25007:1543197624933                                                              1915209 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:25 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798837:172.21.64.17:25007:1543197622403                                                              1915208 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:22 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798836:172.21.64.17:25007:1543197622103                                                              1915207 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:22 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798835:172.21.64.17:25007:1543197621813                                                              1915206 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:21 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798834:172.21.64.17:25007:1543197621507                                                              1915205 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:21 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798833:172.21.64.17:25007:1543197621194                                                              1915204 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 21:00:21 25-NOV-2018 21:00:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190798765:172.21.64.17:25007:1543195801948                                                              1915193 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 20:30:02 25-NOV-2018 20:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796857:172.21.64.17:25007:1543167007975                                                              1914683 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:08 25-NOV-2018 12:30:30                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796856:172.21.64.17:25007:1543167007660                                                              1914682 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:07 25-NOV-2018 12:30:30                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796849:172.21.64.17:25007:1543167004825                                                              1914681 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:04 25-NOV-2018 12:30:30                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796848:172.21.64.17:25007:1543167004533                                                              1914680 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:04 25-NOV-2018 12:30:30                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796847:172.21.64.17:25007:1543167004235                                                              1914679 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:04 25-NOV-2018 12:30:29                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796846:172.21.64.17:25007:1543167003923                                                              1914678 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:04 25-NOV-2018 12:30:29                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796845:172.21.64.17:25007:1543167003635                                                              1914677 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:03 25-NOV-2018 12:30:29                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796844:172.21.64.17:25007:1543167003345                                                              1914676 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:03 25-NOV-2018 12:30:29                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796843:172.21.64.17:25007:1543167003002                                                              1914675 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 12:30:03 25-NOV-2018 12:30:29                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796427:172.21.64.17:25007:1543154410181                                                              1914541 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:10 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796426:172.21.64.17:25007:1543154409867                                                              1914540 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:09 25-NOV-2018 09:00:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796419:172.21.64.17:25007:1543154407026                                                              1914539 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:07 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796418:172.21.64.17:25007:1543154406731                                                              1914538 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:06 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796417:172.21.64.17:25007:1543154406427                                                              1914537 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:06 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796416:172.21.64.17:25007:1543154406131                                                              1914536 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:06 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796415:172.21.64.17:25007:1543154405825                                                              1914535 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:05 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796414:172.21.64.17:25007:1543154405511                                                              1914534 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:05 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190796413:172.21.64.17:25007:1543154405175                                                              1914533 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 09:00:05 25-NOV-2018 09:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795600:172.21.64.17:25007:1543141830502                                                              1914360 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:30 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795599:172.21.64.17:25007:1543141830196                                                              1914359 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:30 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795592:172.21.64.17:25007:1543141827256                                                              1914358 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:27 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795591:172.21.64.17:25007:1543141826951                                                              1914357 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:27 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795590:172.21.64.17:25007:1543141826615                                                              1914356 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:26 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795589:172.21.64.17:25007:1543141826285                                                              1914355 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:26 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795588:172.21.64.17:25007:1543141825958                                                              1914354 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:26 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795587:172.21.64.17:25007:1543141825625                                                              1914353 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:25 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795586:172.21.64.17:25007:1543141825311                                                              1914352 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:25 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795583:172.21.64.17:25007:1543141823229                                                              1914351 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:23 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795582:172.21.64.17:25007:1543141822925                                                              1914350 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:23 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795581:172.21.64.17:25007:1543141822614                                                              1914349 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:22 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795578:172.21.64.17:25007:1543141821644                                                              1914348 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:21 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795569:172.21.64.17:25007:1543141818536                                                              1914347 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:18 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795568:172.21.64.17:25007:1543141817496                                                              1914346 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:17 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795541:172.21.64.17:25007:1543141806964                                                              1914345 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:07 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190795540:172.21.64.17:25007:1543141806565                                                              1914344 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 05:30:06 25-NOV-2018 05:31:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791017:172.21.64.17:25007:1543129297843                                                              1913088 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:37 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791016:172.21.64.17:25007:1543129297448                                                              1913087 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:37 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791009:172.21.64.17:25007:1543129294353                                                              1913086 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:34 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791008:172.21.64.17:25007:1543129294021                                                              1913085 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:34 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791007:172.21.64.17:25007:1543129293643                                                              1913084 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:33 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791006:172.21.64.17:25007:1543129293315                                                              1913083 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:33 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791005:172.21.64.17:25007:1543129292863                                                              1913082 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:33 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791004:172.21.64.17:25007:1543129292533                                                              1913081 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:32 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791003:172.21.64.17:25007:1543129292203                                                              1913080 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:32 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190791000:172.21.64.17:25007:1543129290173                                                              1913079 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:30 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790999:172.21.64.17:25007:1543129289812                                                              1913078 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:29 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790998:172.21.64.17:25007:1543129289493                                                              1913077 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:29 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790995:172.21.64.17:25007:1543129288365                                                              1913076 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:28 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790986:172.21.64.17:25007:1543129285123                                                              1913075 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:25 25-NOV-2018 02:02:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790985:172.21.64.17:25007:1543129284778                                                              1913074 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:24 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790958:172.21.64.17:25007:1543129273853                                                              1913073 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:13 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790957:172.21.64.17:25007:1543129273523                                                              1913072 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:13 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790952:172.21.64.17:25007:1543129271793                                                              1913071 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:11 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790950:172.21.64.17:25007:1543129271123                                                              1913070 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:11 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790949:172.21.64.17:25007:1543129270796                                                              1913069 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:10 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790940:172.21.64.17:25007:1543129267693                                                              1913068 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:07 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790937:172.21.64.17:25007:1543129265775                                                              1913067 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:05 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790936:172.21.64.17:25007:1543129265463                                                              1913066 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:05 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790935:172.21.64.17:25007:1543129265121                                                              1913065 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:05 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790934:172.21.64.17:25007:1543129264773                                                              1913064 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:04 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790933:172.21.64.17:25007:1543129264370                                                              1913063 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:04 25-NOV-2018 02:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790932:172.21.64.17:25007:1543129264023                                                              1913062 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:04 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790923:172.21.64.17:25007:1543129260882                                                              1913061 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:01 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790922:172.21.64.17:25007:1543129260563                                                              1913060 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:00 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790921:172.21.64.17:25007:1543129260245                                                              1913059 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:01:00 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790920:172.21.64.17:25007:1543129259753                                                              1913058 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:00:59 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790919:172.21.64.17:25007:1543129259395                                                              1913057 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:00:59 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790918:172.21.64.17:25007:1543129259073                                                              1913056 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:00:59 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190790917:172.21.64.17:25007:1543129258583                                                              1913055 TIME_OUT                                                                                                                                                                                                                                                                    25-NOV-2018 02:00:58 25-NOV-2018 02:01:25                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789801:172.21.64.17:25007:1543116669049                                                              1912811 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:09 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789800:172.21.64.17:25007:1543116668723                                                              1912810 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:08 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789793:172.21.64.17:25007:1543116665768                                                              1912809 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:05 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789792:172.21.64.17:25007:1543116665456                                                              1912808 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:05 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789791:172.21.64.17:25007:1543116665148                                                              1912807 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:05 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789790:172.21.64.17:25007:1543116664844                                                              1912806 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:04 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789789:172.21.64.17:25007:1543116664499                                                              1912805 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:04 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789788:172.21.64.17:25007:1543116664139                                                              1912804 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:04 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789787:172.21.64.17:25007:1543116663788                                                              1912803 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:03 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789784:172.21.64.17:25007:1543116661565                                                              1912802 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:01 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789783:172.21.64.17:25007:1543116661188                                                              1912801 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:01 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789782:172.21.64.17:25007:1543116660747                                                              1912800 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:31:00 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789779:172.21.64.17:25007:1543116659409                                                              1912799 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:59 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789770:172.21.64.17:25007:1543116655665                                                              1912798 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:55 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789769:172.21.64.17:25007:1543116654768                                                              1912797 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:54 24-NOV-2018 22:31:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789742:172.21.64.17:25007:1543116643908                                                              1912796 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:44 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789741:172.21.64.17:25007:1543116643596                                                              1912795 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:43 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789736:172.21.64.17:25007:1543116641908                                                              1912794 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:42 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789734:172.21.64.17:25007:1543116641258                                                              1912793 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:41 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789733:172.21.64.17:25007:1543116640935                                                              1912792 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:41 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789724:172.21.64.17:25007:1543116636671                                                              1912791 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:36 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789721:172.21.64.17:25007:1543116635509                                                              1912790 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:35 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789720:172.21.64.17:25007:1543116635202                                                              1912789 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:35 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789719:172.21.64.17:25007:1543116634887                                                              1912788 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:35 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789718:172.21.64.17:25007:1543116634579                                                              1912787 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:34 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789717:172.21.64.17:25007:1543116634267                                                              1912786 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:34 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789716:172.21.64.17:25007:1543116633942                                                              1912785 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:34 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789707:172.21.64.17:25007:1543116630867                                                              1912784 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:30 24-NOV-2018 22:30:31                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789706:172.21.64.17:25007:1543116630562                                                              1912783 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:30 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789705:172.21.64.17:25007:1543116630217                                                              1912782 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:30 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789704:172.21.64.17:25007:1543116629886                                                              1912781 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:30 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789703:172.21.64.17:25007:1543116629577                                                              1912780 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:29 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789702:172.21.64.17:25007:1543116629270                                                              1912779 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:29 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789701:172.21.64.17:25007:1543116628947                                                              1912778 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:29 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789693:172.21.64.17:25007:1543116626167                                                              1912777 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:26 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789692:172.21.64.17:25007:1543116625830                                                              1912776 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:25 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789691:172.21.64.17:25007:1543116625517                                                              1912775 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:25 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789690:172.21.64.17:25007:1543116625195                                                              1912774 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:25 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190789689:172.21.64.17:25007:1543116624847                                                              1912773 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 22:30:24 24-NOV-2018 22:30:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190783737:172.21.64.17:25007:1543087808727                                                              1911052 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 14:30:08 24-NOV-2018 14:30:46                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190783736:172.21.64.17:25007:1543087808417                                                              1911051 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 14:30:08 24-NOV-2018 14:30:46                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779380:172.21.64.17:25007:1543075213947                                                              1909690 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:14 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779379:172.21.64.17:25007:1543075213647                                                              1909689 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:13 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779378:172.21.64.17:25007:1543075213347                                                              1909688 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:13 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779377:172.21.64.17:25007:1543075213050                                                              1909687 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:13 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779376:172.21.64.17:25007:1543075212737                                                              1909686 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:12 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779375:172.21.64.17:25007:1543075212437                                                              1909685 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:12 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779374:172.21.64.17:25007:1543075212137                                                              1909684 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:12 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779373:172.21.64.17:25007:1543075211839                                                              1909683 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:11 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190779372:172.21.64.17:25007:1543075211537                                                              1909682 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 11:00:11 24-NOV-2018 11:00:36                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777910:172.21.64.17:25007:1543062610699                                                              1909092 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:10 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777909:172.21.64.17:25007:1543062610378                                                              1909091 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:10 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777908:172.21.64.17:25007:1543062610069                                                              1909090 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:10 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777907:172.21.64.17:25007:1543062609766                                                              1909089 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:09 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777906:172.21.64.17:25007:1543062609469                                                              1909088 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:09 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777905:172.21.64.17:25007:1543062609162                                                              1909087 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:09 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777904:172.21.64.17:25007:1543062608839                                                              1909086 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:08 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777903:172.21.64.17:25007:1543062608479                                                              1909085 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:08 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190777902:172.21.64.17:25007:1543062607976                                                              1909084 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 07:30:08 24-NOV-2018 07:30:47                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773516:172.21.64.17:25007:1543050038188                                                              1907899 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:38 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773515:172.21.64.17:25007:1543050037867                                                              1907898 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:37 24-NOV-2018 04:00:38                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773514:172.21.64.17:25007:1543050037568                                                              1907897 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:37 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773513:172.21.64.17:25007:1543050037262                                                              1907896 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:37 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773512:172.21.64.17:25007:1543050036958                                                              1907895 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:37 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773511:172.21.64.17:25007:1543050036667                                                              1907894 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:36 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773510:172.21.64.17:25007:1543050036368                                                              1907893 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:36 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773509:172.21.64.17:25007:1543050036046                                                              1907892 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:36 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773508:172.21.64.17:25007:1543050035748                                                              1907891 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:35 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773505:172.21.64.17:25007:1543050033828                                                              1907890 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:33 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773504:172.21.64.17:25007:1543050033518                                                              1907889 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:33 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773503:172.21.64.17:25007:1543050033218                                                              1907888 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:33 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773500:172.21.64.17:25007:1543050032259                                                              1907887 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:32 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773491:172.21.64.17:25007:1543050029288                                                              1907886 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:29 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773490:172.21.64.17:25007:1543050028979                                                              1907885 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:29 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773462:172.21.64.17:25007:1543050018788                                                              1907884 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:18 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773461:172.21.64.17:25007:1543050008658                                                              1907883 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 04:00:08 24-NOV-2018 04:00:57                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773408:172.21.64.17:25007:1543037451259                                                              1907827 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:51 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773407:172.21.64.17:25007:1543037450960                                                              1907826 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:51 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773406:172.21.64.17:25007:1543037450639                                                              1907825 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:50 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773405:172.21.64.17:25007:1543037450325                                                              1907824 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:50 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773404:172.21.64.17:25007:1543037450009                                                              1907823 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:50 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773403:172.21.64.17:25007:1543037449698                                                              1907822 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:49 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773402:172.21.64.17:25007:1543037449379                                                              1907821 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:49 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773401:172.21.64.17:25007:1543037448442                                                              1907820 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:48 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773400:172.21.64.17:25007:1543037447169                                                              1907819 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:47 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773397:172.21.64.17:25007:1543037445129                                                              1907818 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:45 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773396:172.21.64.17:25007:1543037444819                                                              1907817 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:44 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773395:172.21.64.17:25007:1543037444519                                                              1907816 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:44 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773392:172.21.64.17:25007:1543037443219                                                              1907815 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:43 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773383:172.21.64.17:25007:1543037439699                                                              1907814 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:39 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773382:172.21.64.17:25007:1543037439392                                                              1907813 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:39 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773355:172.21.64.17:25007:1543037427458                                                              1907812 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:27 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773354:172.21.64.17:25007:1543037427129                                                              1907811 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:27 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773349:172.21.64.17:25007:1543037425393                                                              1907810 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:25 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773347:172.21.64.17:25007:1543037424704                                                              1907809 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:24 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773346:172.21.64.17:25007:1543037424349                                                              1907808 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:24 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773337:172.21.64.17:25007:1543037421086                                                              1907807 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:21 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773334:172.21.64.17:25007:1543037420009                                                              1907806 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:20 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773333:172.21.64.17:25007:1543037419692                                                              1907805 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:19 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773332:172.21.64.17:25007:1543037419388                                                              1907804 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:19 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773331:172.21.64.17:25007:1543037419060                                                              1907803 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:19 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773330:172.21.64.17:25007:1543037418758                                                              1907802 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:18 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773329:172.21.64.17:25007:1543037418451                                                              1907801 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:18 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773320:172.21.64.17:25007:1543037415258                                                              1907800 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:15 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773319:172.21.64.17:25007:1543037414919                                                              1907799 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:15 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773318:172.21.64.17:25007:1543037414618                                                              1907798 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:14 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773317:172.21.64.17:25007:1543037414303                                                              1907797 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:14 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773316:172.21.64.17:25007:1543037413968                                                              1907796 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:14 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773315:172.21.64.17:25007:1543037413657                                                              1907795 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:13 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190773314:172.21.64.17:25007:1543037413349                                                              1907794 TIME_OUT                                                                                                                                                                                                                                                                    24-NOV-2018 00:30:13 24-NOV-2018 00:30:52                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190707847:172.21.64.17:25007:1543026563386                                                              1907765 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:29:24 23-NOV-2018 21:29:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670224:172.21.64.17:25007:1543024874133                                                              1907754 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:14 23-NOV-2018 21:02:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670223:172.21.64.17:25007:1543024873842                                                              1907753 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:13 23-NOV-2018 21:02:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670222:172.21.64.17:25007:1543024873545                                                              1907752 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:13 23-NOV-2018 21:02:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670221:172.21.64.17:25007:1543024873252                                                              1907751 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:13 23-NOV-2018 21:02:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670220:172.21.64.17:25007:1543024872923                                                              1907750 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:13 23-NOV-2018 21:02:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670219:172.21.64.17:25007:1543024872632                                                              1907749 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:12 23-NOV-2018 21:01:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670218:172.21.64.17:25007:1543024872313                                                              1907748 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:12 23-NOV-2018 21:01:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670217:172.21.64.17:25007:1543024872002                                                              1907747 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:12 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670216:172.21.64.17:25007:1543024871698                                                              1907746 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:11 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670210:172.21.64.17:25007:1543024869692                                                              1907745 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:09 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670209:172.21.64.17:25007:1543024869392                                                              1907744 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:09 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670208:172.21.64.17:25007:1543024869092                                                              1907743 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:09 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670205:172.21.64.17:25007:1543024867576                                                              1907742 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:07 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670196:172.21.64.17:25007:1543024864522                                                              1907741 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:04 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670195:172.21.64.17:25007:1543024864218                                                              1907740 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:01:04 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670168:172.21.64.17:25007:1543024852991                                                              1907739 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:53 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670167:172.21.64.17:25007:1543024852680                                                              1907738 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:52 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670162:172.21.64.17:25007:1543024851052                                                              1907737 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:51 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670160:172.21.64.17:25007:1543024850412                                                              1907736 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:50 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670159:172.21.64.17:25007:1543024850106                                                              1907735 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:50 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670145:172.21.64.17:25007:1543024845376                                                              1907734 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:45 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670142:172.21.64.17:25007:1543024844361                                                              1907733 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:44 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670141:172.21.64.17:25007:1543024844056                                                              1907732 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:44 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670140:172.21.64.17:25007:1543024843752                                                              1907731 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:43 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670139:172.21.64.17:25007:1543024843439                                                              1907730 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:43 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670138:172.21.64.17:25007:1543024843142                                                              1907729 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:43 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670137:172.21.64.17:25007:1543024842834                                                              1907728 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:42 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670128:172.21.64.17:25007:1543024838871                                                              1907727 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:38 23-NOV-2018 21:00:39                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670127:172.21.64.17:25007:1543024838559                                                              1907726 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:38 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670126:172.21.64.17:25007:1543024838251                                                              1907725 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:38 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670125:172.21.64.17:25007:1543024837910                                                              1907724 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:38 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670124:172.21.64.17:25007:1543024837612                                                              1907723 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:37 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670123:172.21.64.17:25007:1543024837311                                                              1907722 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:37 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670122:172.21.64.17:25007:1543024836988                                                              1907721 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:37 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670119:172.21.64.17:25007:1543024836001                                                              1907720 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:36 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670118:172.21.64.17:25007:1543024835697                                                              1907719 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:35 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670117:172.21.64.17:25007:1543024835361                                                              1907718 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:35 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670116:172.21.64.17:25007:1543024835056                                                              1907717 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:35 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190670115:172.21.64.17:25007:1543024834732                                                              1907716 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 21:00:34 23-NOV-2018 21:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656504:172.21.64.17:25007:1543001410284                                                              1904527 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:10 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656503:172.21.64.17:25007:1543001409984                                                              1904526 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:10 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656502:172.21.64.17:25007:1543001409668                                                              1904525 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:09 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656501:172.21.64.17:25007:1543001409149                                                              1904524 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:09 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656500:172.21.64.17:25007:1543001408526                                                              1904522 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:08 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656499:172.21.64.17:25007:1543001408224                                                              1904521 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:08 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656498:172.21.64.17:25007:1543001407914                                                              1904520 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:08 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656497:172.21.64.17:25007:1543001407615                                                              1904519 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:07 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190656496:172.21.64.17:25007:1543001407284                                                              1904518 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 14:30:07 23-NOV-2018 14:30:34                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649454:172.21.64.17:25007:1542988817544                                                              1902105 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:17 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649453:172.21.64.17:25007:1542988817219                                                              1902104 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:17 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649452:172.21.64.17:25007:1542988816922                                                              1902103 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:17 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649451:172.21.64.17:25007:1542988816624                                                              1902102 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:16 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649450:172.21.64.17:25007:1542988816329                                                              1902101 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:16 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649449:172.21.64.17:25007:1542988816038                                                              1902100 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:16 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649448:172.21.64.17:25007:1542988815747                                                              1902099 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:15 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649447:172.21.64.17:25007:1542988815445                                                              1902098 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:15 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190649446:172.21.64.17:25007:1542988815145                                                              1902097 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 11:00:15 23-NOV-2018 11:00:19                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647111:172.21.64.17:25007:1542976228544                                                              1901191 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:28 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647110:172.21.64.17:25007:1542976228241                                                              1901190 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:28 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647109:172.21.64.17:25007:1542976227944                                                              1901189 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:28 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647108:172.21.64.17:25007:1542976227648                                                              1901188 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:27 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647107:172.21.64.17:25007:1542976227344                                                              1901187 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:27 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647106:172.21.64.17:25007:1542976227045                                                              1901186 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:27 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647105:172.21.64.17:25007:1542976226744                                                              1901185 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:26 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647104:172.21.64.17:25007:1542976226418                                                              1901184 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:26 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647103:172.21.64.17:25007:1542976226124                                                              1901183 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:26 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647100:172.21.64.17:25007:1542976224224                                                              1901182 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:24 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647099:172.21.64.17:25007:1542976223916                                                              1901181 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:24 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647098:172.21.64.17:25007:1542976223544                                                              1901180 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:23 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647095:172.21.64.17:25007:1542976222555                                                              1901179 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:22 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647086:172.21.64.17:25007:1542976219544                                                              1901178 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:19 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647085:172.21.64.17:25007:1542976219239                                                              1901177 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:19 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647058:172.21.64.17:25007:1542976208503                                                              1901176 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:08 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190647057:172.21.64.17:25007:1542976208204                                                              1901175 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 07:30:08 23-NOV-2018 07:30:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641970:172.21.64.17:25007:1542963679433                                                              1900035 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:19 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641969:172.21.64.17:25007:1542963679137                                                              1900034 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:19 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641968:172.21.64.17:25007:1542963678833                                                              1900033 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:18 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641967:172.21.64.17:25007:1542963678525                                                              1900032 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:18 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641966:172.21.64.17:25007:1542963678213                                                              1900031 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:18 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641965:172.21.64.17:25007:1542963677897                                                              1900030 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:18 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641964:172.21.64.17:25007:1542963677593                                                              1900029 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:17 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641963:172.21.64.17:25007:1542963677295                                                              1900028 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:17 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641962:172.21.64.17:25007:1542963676983                                                              1900027 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:17 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641959:172.21.64.17:25007:1542963675028                                                              1900026 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:15 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641958:172.21.64.17:25007:1542963674743                                                              1900025 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:14 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641957:172.21.64.17:25007:1542963674449                                                              1900024 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:14 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641954:172.21.64.17:25007:1542963673504                                                              1900023 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:13 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641945:172.21.64.17:25007:1542963670566                                                              1900022 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:10 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641944:172.21.64.17:25007:1542963670277                                                              1900021 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:10 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641917:172.21.64.17:25007:1542963660126                                                              1900020 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:01:00 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641916:172.21.64.17:25007:1542963659823                                                              1900019 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:59 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641911:172.21.64.17:25007:1542963658206                                                              1900018 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:58 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641909:172.21.64.17:25007:1542963657583                                                              1900017 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:57 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641908:172.21.64.17:25007:1542963657283                                                              1900016 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:57 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641894:172.21.64.17:25007:1542963652702                                                              1900015 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:52 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641891:172.21.64.17:25007:1542963651702                                                              1900014 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:51 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641890:172.21.64.17:25007:1542963651412                                                              1900013 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:51 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641889:172.21.64.17:25007:1542963651113                                                              1900012 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:51 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641888:172.21.64.17:25007:1542963650782                                                              1900011 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:50 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641887:172.21.64.17:25007:1542963650367                                                              1900010 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:50 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641886:172.21.64.17:25007:1542963650062                                                              1900009 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:50 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641877:172.21.64.17:25007:1542963646988                                                              1900008 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:47 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641876:172.21.64.17:25007:1542963646672                                                              1900007 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:46 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641875:172.21.64.17:25007:1542963646376                                                              1900006 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:46 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641874:172.21.64.17:25007:1542963646072                                                              1900005 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:46 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641873:172.21.64.17:25007:1542963645751                                                              1900004 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:45 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641872:172.21.64.17:25007:1542963645442                                                              1900003 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:45 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641871:172.21.64.17:25007:1542963645075                                                              1900002 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 04:00:45 23-NOV-2018 04:01:35                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641303:172.21.64.17:25007:1542951063867                                                              1899355 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:03 23-NOV-2018 00:31:04                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641302:172.21.64.17:25007:1542951063567                                                              1899354 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:03 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641301:172.21.64.17:25007:1542951063247                                                              1899353 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:03 23-NOV-2018 00:31:51                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641300:172.21.64.17:25007:1542951062948                                                              1899352 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:03 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641299:172.21.64.17:25007:1542951062637                                                              1899351 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:02 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641298:172.21.64.17:25007:1542951062296                                                              1899350 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:02 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641297:172.21.64.17:25007:1542951061987                                                              1899349 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:02 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641296:172.21.64.17:25007:1542951061688                                                              1899348 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:01 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641295:172.21.64.17:25007:1542951061378                                                              1899347 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:31:01 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641292:172.21.64.17:25007:1542951059403                                                              1899346 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:59 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641291:172.21.64.17:25007:1542951059109                                                              1899345 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:59 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641290:172.21.64.17:25007:1542951058803                                                              1899344 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:58 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641287:172.21.64.17:25007:1542951057849                                                              1899343 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:57 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641278:172.21.64.17:25007:1542951054730                                                              1899342 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:54 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641277:172.21.64.17:25007:1542951054430                                                              1899341 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:54 23-NOV-2018 00:31:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641250:172.21.64.17:25007:1542951044006                                                              1899340 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:44 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641249:172.21.64.17:25007:1542951043711                                                              1899339 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:43 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641244:172.21.64.17:25007:1542951042041                                                              1899338 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:42 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641242:172.21.64.17:25007:1542951041421                                                              1899337 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:41 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641241:172.21.64.17:25007:1542951041124                                                              1899336 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:41 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641228:172.21.64.17:25007:1542951036261                                                              1899335 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:36 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641225:172.21.64.17:25007:1542951035233                                                              1899334 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:35 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641224:172.21.64.17:25007:1542951034930                                                              1899333 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:35 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641223:172.21.64.17:25007:1542951034615                                                              1899332 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:34 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641222:172.21.64.17:25007:1542951034301                                                              1899331 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:34 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641221:172.21.64.17:25007:1542951033999                                                              1899330 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:34 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641220:172.21.64.17:25007:1542951033691                                                              1899329 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:33 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641211:172.21.64.17:25007:1542951030700                                                              1899328 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:30 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641210:172.21.64.17:25007:1542951030406                                                              1899327 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:30 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641209:172.21.64.17:25007:1542951030111                                                              1899326 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:30 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641208:172.21.64.17:25007:1542951029811                                                              1899325 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:29 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641207:172.21.64.17:25007:1542951029500                                                              1899324 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:29 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641206:172.21.64.17:25007:1542951029197                                                              1899323 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:29 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641205:172.21.64.17:25007:1542951028900                                                              1899322 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:29 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641202:172.21.64.17:25007:1542951027844                                                              1899321 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:28 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641201:172.21.64.17:25007:1542951026856                                                              1899320 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:26 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641200:172.21.64.17:25007:1542951026540                                                              1899319 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:26 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641199:172.21.64.17:25007:1542951026206                                                              1899318 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:26 23-NOV-2018 00:30:45                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190641198:172.21.64.17:25007:1542951025870                                                              1899317 TIME_OUT                                                                                                                                                                                                                                                                    23-NOV-2018 00:30:25 23-NOV-2018 00:30:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190638042:172.21.64.17:25007:1542941776961                                                              1899222 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:56:17 22-NOV-2018 21:56:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637352:172.21.64.17:25007:1542938470715                                                              1899134 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:10 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637351:172.21.64.17:25007:1542938470387                                                              1899133 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:10 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637350:172.21.64.17:25007:1542938470085                                                              1899132 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:10 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637349:172.21.64.17:25007:1542938469798                                                              1899131 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:09 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637348:172.21.64.17:25007:1542938469505                                                              1899130 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:09 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637347:172.21.64.17:25007:1542938469154                                                              1899129 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:09 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637346:172.21.64.17:25007:1542938468855                                                              1899128 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:08 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637345:172.21.64.17:25007:1542938468561                                                              1899127 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:08 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637344:172.21.64.17:25007:1542938468266                                                              1899126 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:08 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637341:172.21.64.17:25007:1542938466297                                                              1899125 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:06 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637340:172.21.64.17:25007:1542938466006                                                              1899124 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:06 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637339:172.21.64.17:25007:1542938465708                                                              1899123 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:05 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637336:172.21.64.17:25007:1542938464734                                                              1899122 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:04 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637327:172.21.64.17:25007:1542938461785                                                              1899121 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:01 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637326:172.21.64.17:25007:1542938461476                                                              1899120 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:01:01 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637299:172.21.64.17:25007:1542938451235                                                              1899119 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:51 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637298:172.21.64.17:25007:1542938450920                                                              1899118 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:51 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637293:172.21.64.17:25007:1542938449285                                                              1899117 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:49 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637291:172.21.64.17:25007:1542938448645                                                              1899116 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:48 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637290:172.21.64.17:25007:1542938448345                                                              1899115 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:48 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637277:172.21.64.17:25007:1542938444086                                                              1899114 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:44 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637274:172.21.64.17:25007:1542938443075                                                              1899113 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:43 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637273:172.21.64.17:25007:1542938442788                                                              1899112 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:42 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637272:172.21.64.17:25007:1542938442491                                                              1899111 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:42 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637271:172.21.64.17:25007:1542938442194                                                              1899110 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:42 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637270:172.21.64.17:25007:1542938441905                                                              1899109 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:42 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637269:172.21.64.17:25007:1542938441600                                                              1899108 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:41 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637260:172.21.64.17:25007:1542938438625                                                              1899107 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:38 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637259:172.21.64.17:25007:1542938438317                                                              1899106 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:38 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637258:172.21.64.17:25007:1542938438025                                                              1899105 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:38 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637257:172.21.64.17:25007:1542938437719                                                              1899104 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:37 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637256:172.21.64.17:25007:1542938437425                                                              1899103 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:37 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637255:172.21.64.17:25007:1542938437121                                                              1899102 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:37 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637254:172.21.64.17:25007:1542938436815                                                              1899101 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:36 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637251:172.21.64.17:25007:1542938435831                                                              1899100 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:35 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637250:172.21.64.17:25007:1542938435515                                                              1899099 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:35 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637249:172.21.64.17:25007:1542938435224                                                              1899098 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:35 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637248:172.21.64.17:25007:1542938434895                                                              1899097 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:35 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190637247:172.21.64.17:25007:1542938434580                                                              1899096 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 21:00:34 22-NOV-2018 21:01:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190628799:172.21.64.17:25007:1542918088616                                                              1897224 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 15:21:29 22-NOV-2018 15:21:38                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190626774:172.21.64.17:25007:1542912453467                                                              1896567 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 13:47:34 22-NOV-2018 13:48:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190625248:172.21.64.17:25007:1542910788820                                                              1896128 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 13:19:48 22-NOV-2018 13:20:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190625115:172.21.64.17:25007:1542910274349                                                              1896087 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 13:11:14 22-NOV-2018 13:11:40                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623679:172.21.64.17:25007:1542906009629                                                              1895661 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:09 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623678:172.21.64.17:25007:1542906009320                                                              1895660 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:09 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623677:172.21.64.17:25007:1542906008999                                                              1895659 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:09 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623676:172.21.64.17:25007:1542906008686                                                              1895658 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:08 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623675:172.21.64.17:25007:1542906008389                                                              1895657 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:08 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623674:172.21.64.17:25007:1542906008078                                                              1895656 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:08 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623673:172.21.64.17:25007:1542906007759                                                              1895655 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:07 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623672:172.21.64.17:25007:1542906007379                                                              1895654 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:07 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190623671:172.21.64.17:25007:1542906007027                                                              1895653 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 12:00:07 22-NOV-2018 12:00:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619263:172.21.64.17:25007:1542893409802                                                              1894201 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:09 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619262:172.21.64.17:25007:1542893409491                                                              1894200 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:09 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619261:172.21.64.17:25007:1542893409162                                                              1894199 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:09 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619260:172.21.64.17:25007:1542893408850                                                              1894198 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:08 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619259:172.21.64.17:25007:1542893408553                                                              1894197 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:08 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619258:172.21.64.17:25007:1542893408248                                                              1894196 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:08 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619257:172.21.64.17:25007:1542893407942                                                              1894195 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:08 22-NOV-2018 08:31:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619256:172.21.64.17:25007:1542893407640                                                              1894194 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:07 22-NOV-2018 08:30:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190619255:172.21.64.17:25007:1542893407312                                                              1894193 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 08:30:07 22-NOV-2018 08:30:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615930:172.21.64.17:25007:1542880828990                                                              1893552 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:29 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615929:172.21.64.17:25007:1542880828668                                                              1893551 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:28 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615928:172.21.64.17:25007:1542880828350                                                              1893550 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:28 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615927:172.21.64.17:25007:1542880828026                                                              1893549 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:28 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615926:172.21.64.17:25007:1542880827710                                                              1893548 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:27 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615925:172.21.64.17:25007:1542880827406                                                              1893547 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:27 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615924:172.21.64.17:25007:1542880827090                                                              1893546 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:27 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615923:172.21.64.17:25007:1542880826781                                                              1893545 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:26 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615922:172.21.64.17:25007:1542880826460                                                              1893544 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:26 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615921:172.21.64.17:25007:1542880826124                                                              1893543 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:26 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615920:172.21.64.17:25007:1542880824940                                                              1893542 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:25 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615919:172.21.64.17:25007:1542880824624                                                              1893541 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:24 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615916:172.21.64.17:25007:1542880822860                                                              1893540 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:22 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615907:172.21.64.17:25007:1542880819841                                                              1893539 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:19 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615906:172.21.64.17:25007:1542880819520                                                              1893538 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:19 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615879:172.21.64.17:25007:1542880809230                                                              1893537 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:09 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190615878:172.21.64.17:25007:1542880808879                                                              1893536 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 05:00:09 22-NOV-2018 05:01:14                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612788:172.21.64.17:25007:1542868250298                                                              1892543 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:50 22-NOV-2018 01:31:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612787:172.21.64.17:25007:1542868249820                                                              1892542 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:49 22-NOV-2018 01:31:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612786:172.21.64.17:25007:1542868249360                                                              1892541 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:49 22-NOV-2018 01:31:54                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612785:172.21.64.17:25007:1542868248870                                                              1892540 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:48 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612784:172.21.64.17:25007:1542868248382                                                              1892539 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:48 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612783:172.21.64.17:25007:1542868248010                                                              1892538 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:48 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612782:172.21.64.17:25007:1542868247697                                                              1892537 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:47 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612781:172.21.64.17:25007:1542868246211                                                              1892536 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:46 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612780:172.21.64.17:25007:1542868245220                                                              1892535 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:45 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612779:172.21.64.17:25007:1542868244822                                                              1892534 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:44 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612778:172.21.64.17:25007:1542868244520                                                              1892533 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:44 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612777:172.21.64.17:25007:1542868244223                                                              1892532 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:44 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612774:172.21.64.17:25007:1542868243200                                                              1892531 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:43 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612765:172.21.64.17:25007:1542868240090                                                              1892530 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:40 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612764:172.21.64.17:25007:1542868239768                                                              1892529 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:39 22-NOV-2018 01:30:50                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612737:172.21.64.17:25007:1542868228735                                                              1892528 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:28 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612736:172.21.64.17:25007:1542868228430                                                              1892527 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:28 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612731:172.21.64.17:25007:1542868226647                                                              1892526 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:26 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612729:172.21.64.17:25007:1542868226001                                                              1892525 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:26 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612728:172.21.64.17:25007:1542868225700                                                              1892524 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:25 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612715:172.21.64.17:25007:1542868221270                                                              1892523 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:21 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612712:172.21.64.17:25007:1542868220280                                                              1892522 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:20 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612711:172.21.64.17:25007:1542868219953                                                              1892521 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:20 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612710:172.21.64.17:25007:1542868219630                                                              1892520 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:19 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612709:172.21.64.17:25007:1542868219230                                                              1892519 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:19 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612708:172.21.64.17:25007:1542868218930                                                              1892518 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:19 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612707:172.21.64.17:25007:1542868218630                                                              1892517 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:18 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612698:172.21.64.17:25007:1542868215290                                                              1892516 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:15 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612697:172.21.64.17:25007:1542868214917                                                              1892515 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:15 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612696:172.21.64.17:25007:1542868214620                                                              1892514 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:14 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612695:172.21.64.17:25007:1542868213313                                                              1892513 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:13 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612694:172.21.64.17:25007:1542868212980                                                              1892512 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:13 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612693:172.21.64.17:25007:1542868212669                                                              1892511 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:12 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190612692:172.21.64.17:25007:1542868212200                                                              1892510 TIME_OUT                                                                                                                                                                                                                                                                    22-NOV-2018 01:30:12 22-NOV-2018 01:30:49                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585279:172.21.64.17:25007:1542855677369                                                              1887283 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:17 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585278:172.21.64.17:25007:1542855677065                                                              1887282 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:17 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585277:172.21.64.17:25007:1542855676743                                                              1887281 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:16 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585276:172.21.64.17:25007:1542855676415                                                              1887280 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:16 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585275:172.21.64.17:25007:1542855676080                                                              1887279 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:16 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585274:172.21.64.17:25007:1542855675745                                                              1887278 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:15 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585273:172.21.64.17:25007:1542855675439                                                              1887277 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:15 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585272:172.21.64.17:25007:1542855675135                                                              1887276 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:15 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585271:172.21.64.17:25007:1542855674820                                                              1887275 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:14 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585268:172.21.64.17:25007:1542855674515                                                              1887274 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:14 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585267:172.21.64.17:25007:1542855674211                                                              1887273 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:14 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585266:172.21.64.17:25007:1542855673905                                                              1887272 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:14 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585263:172.21.64.17:25007:1542855672851                                                              1887271 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:12 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585254:172.21.64.17:25007:1542855669745                                                              1887270 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:09 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585253:172.21.64.17:25007:1542855669436                                                              1887269 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:01:09 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585226:172.21.64.17:25007:1542855657905                                                              1887268 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:58 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585225:172.21.64.17:25007:1542855657594                                                              1887267 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:57 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585220:172.21.64.17:25007:1542855655865                                                              1887266 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:55 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585218:172.21.64.17:25007:1542855655215                                                              1887265 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:55 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585217:172.21.64.17:25007:1542855654893                                                              1887264 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:55 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585204:172.21.64.17:25007:1542855650398                                                              1887263 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:50 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585201:172.21.64.17:25007:1542855649355                                                              1887262 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:49 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585200:172.21.64.17:25007:1542855649038                                                              1887261 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:49 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585199:172.21.64.17:25007:1542855648725                                                              1887260 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:48 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585198:172.21.64.17:25007:1542855648321                                                              1887259 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:48 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585197:172.21.64.17:25007:1542855648015                                                              1887258 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:48 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585196:172.21.64.17:25007:1542855647691                                                              1887257 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:47 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585187:172.21.64.17:25007:1542855644545                                                              1887256 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:44 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585186:172.21.64.17:25007:1542855644227                                                              1887255 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:44 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585185:172.21.64.17:25007:1542855643915                                                              1887254 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:44 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585184:172.21.64.17:25007:1542855643605                                                              1887253 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:43 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585183:172.21.64.17:25007:1542855643275                                                              1887252 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:43 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585182:172.21.64.17:25007:1542855642963                                                              1887251 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:43 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585181:172.21.64.17:25007:1542855642645                                                              1887250 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:42 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585178:172.21.64.17:25007:1542855641596                                                              1887249 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:41 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585177:172.21.64.17:25007:1542855641255                                                              1887248 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:41 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585176:172.21.64.17:25007:1542855640931                                                              1887247 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:41 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585175:172.21.64.17:25007:1542855640625                                                              1887246 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:40 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190585174:172.21.64.17:25007:1542855640278                                                              1887245 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 22:00:40 21-NOV-2018 22:01:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579501:172.21.64.17:25007:1542828610768                                                              1885663 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:10 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579500:172.21.64.17:25007:1542828610468                                                              1885662 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:10 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579499:172.21.64.17:25007:1542828610167                                                              1885661 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:10 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579498:172.21.64.17:25007:1542828609878                                                              1885660 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:10 21-NOV-2018 14:30:10                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579497:172.21.64.17:25007:1542828609586                                                              1885659 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:09 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579496:172.21.64.17:25007:1542828609238                                                              1885658 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:09 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579495:172.21.64.17:25007:1542828608858                                                              1885657 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:09 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579494:172.21.64.17:25007:1542828608558                                                              1885656 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:08 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190579493:172.21.64.17:25007:1542828608258                                                              1885655 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 14:30:08 21-NOV-2018 14:30:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573518:172.21.64.17:25007:1542816010316                                                              1883447 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:10 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573517:172.21.64.17:25007:1542816010025                                                              1883446 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:10 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573516:172.21.64.17:25007:1542816009736                                                              1883445 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:09 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573515:172.21.64.17:25007:1542816009432                                                              1883444 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:09 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573514:172.21.64.17:25007:1542816009126                                                              1883443 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:09 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573513:172.21.64.17:25007:1542816008829                                                              1883442 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:08 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573512:172.21.64.17:25007:1542816008523                                                              1883441 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:08 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573511:172.21.64.17:25007:1542816008235                                                              1883440 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:08 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190573510:172.21.64.17:25007:1542816007910                                                              1883439 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 11:00:08 21-NOV-2018 11:00:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570356:172.21.64.17:25007:1542803427570                                                              1881831 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:27 21-NOV-2018 07:31:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570355:172.21.64.17:25007:1542803427261                                                              1881830 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:27 21-NOV-2018 07:31:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570354:172.21.64.17:25007:1542803426959                                                              1881828 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:27 21-NOV-2018 07:31:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570353:172.21.64.17:25007:1542803426649                                                              1881826 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:26 21-NOV-2018 07:31:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570352:172.21.64.17:25007:1542803426329                                                              1881825 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:26 21-NOV-2018 07:31:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570351:172.21.64.17:25007:1542803426040                                                              1881823 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:26 21-NOV-2018 07:31:08                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570350:172.21.64.17:25007:1542803425735                                                              1881821 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:25 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570349:172.21.64.17:25007:1542803425440                                                              1881819 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:25 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570348:172.21.64.17:25007:1542803425143                                                              1881818 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:25 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570347:172.21.64.17:25007:1542803424840                                                              1881816 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:24 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570346:172.21.64.17:25007:1542803424534                                                              1881814 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:24 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570345:172.21.64.17:25007:1542803424240                                                              1881813 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:24 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570342:172.21.64.17:25007:1542803422100                                                              1881807 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:22 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570333:172.21.64.17:25007:1542803419150                                                              1881799 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:19 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570332:172.21.64.17:25007:1542803418833                                                              1881798 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:18 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570305:172.21.64.17:25007:1542803408880                                                              1881770 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:09 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190570304:172.21.64.17:25007:1542803408550                                                              1881769 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 07:30:08 21-NOV-2018 07:31:07                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567982:172.21.64.17:25007:1542790842825                                                              1880726 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:42 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567981:172.21.64.17:25007:1542790842531                                                              1880725 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:42 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567980:172.21.64.17:25007:1542790842147                                                              1880724 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:42 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567979:172.21.64.17:25007:1542790841851                                                              1880723 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:41 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567978:172.21.64.17:25007:1542790841559                                                              1880722 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:41 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567977:172.21.64.17:25007:1542790841241                                                              1880721 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:41 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567976:172.21.64.17:25007:1542790840942                                                              1880720 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:41 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567975:172.21.64.17:25007:1542790840651                                                              1880719 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:40 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567974:172.21.64.17:25007:1542790840343                                                              1880718 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:40 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567973:172.21.64.17:25007:1542790840051                                                              1880717 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:40 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567972:172.21.64.17:25007:1542790839754                                                              1880716 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:39 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567971:172.21.64.17:25007:1542790839461                                                              1880715 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:39 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567968:172.21.64.17:25007:1542790838529                                                              1880714 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:38 21-NOV-2018 04:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567959:172.21.64.17:25007:1542790835668                                                              1880713 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:35 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567958:172.21.64.17:25007:1542790835370                                                              1880712 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:35 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567931:172.21.64.17:25007:1542790825557                                                              1880711 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:25 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567930:172.21.64.17:25007:1542790825251                                                              1880710 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:25 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567925:172.21.64.17:25007:1542790823659                                                              1880709 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:23 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567923:172.21.64.17:25007:1542790823031                                                              1880708 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:23 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567922:172.21.64.17:25007:1542790822721                                                              1880707 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:22 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567909:172.21.64.17:25007:1542790818581                                                              1880706 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:18 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567906:172.21.64.17:25007:1542790817621                                                              1880705 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:17 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567905:172.21.64.17:25007:1542790817327                                                              1880704 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:17 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567904:172.21.64.17:25007:1542790817021                                                              1880703 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:17 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567903:172.21.64.17:25007:1542790816621                                                              1880702 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:16 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567902:172.21.64.17:25007:1542790816314                                                              1880701 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:16 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567901:172.21.64.17:25007:1542790816011                                                              1880700 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:16 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567892:172.21.64.17:25007:1542790813014                                                              1880699 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:13 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567891:172.21.64.17:25007:1542790812711                                                              1880698 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:12 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567890:172.21.64.17:25007:1542790812392                                                              1880697 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:12 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567889:172.21.64.17:25007:1542790812071                                                              1880696 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:12 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567888:172.21.64.17:25007:1542790811744                                                              1880695 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:11 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567887:172.21.64.17:25007:1542790811451                                                              1880694 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:11 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567886:172.21.64.17:25007:1542790811066                                                              1880693 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 04:00:11 21-NOV-2018 04:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567823:172.21.64.17:25007:1542778260609                                                              1880183 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:31:00 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567822:172.21.64.17:25007:1542778260313                                                              1880182 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:31:00 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567821:172.21.64.17:25007:1542778259929                                                              1880181 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:31:00 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567820:172.21.64.17:25007:1542778259633                                                              1880180 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:59 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567819:172.21.64.17:25007:1542778259299                                                              1880179 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:59 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567818:172.21.64.17:25007:1542778258986                                                              1880178 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:59 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567817:172.21.64.17:25007:1542778258499                                                              1880177 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:58 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567816:172.21.64.17:25007:1542778258213                                                              1880176 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:58 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567815:172.21.64.17:25007:1542778257909                                                              1880175 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:58 21-NOV-2018 00:31:18                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567814:172.21.64.17:25007:1542778257606                                                              1880174 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:57 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567813:172.21.64.17:25007:1542778257319                                                              1880173 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:57 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567812:172.21.64.17:25007:1542778257006                                                              1880172 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:57 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567809:172.21.64.17:25007:1542778256079                                                              1880171 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:56 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567800:172.21.64.17:25007:1542778253096                                                              1880170 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:53 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567799:172.21.64.17:25007:1542778252809                                                              1880169 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:52 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567772:172.21.64.17:25007:1542778242909                                                              1880167 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:43 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567771:172.21.64.17:25007:1542778242556                                                              1880166 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:42 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567766:172.21.64.17:25007:1542778240939                                                              1880164 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:41 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567764:172.21.64.17:25007:1542778240323                                                              1880163 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:40 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567763:172.21.64.17:25007:1542778240031                                                              1880162 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:40 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567750:172.21.64.17:25007:1542778235739                                                              1880160 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:35 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567747:172.21.64.17:25007:1542778234785                                                              1880158 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:34 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567746:172.21.64.17:25007:1542778234499                                                              1880157 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:34 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567745:172.21.64.17:25007:1542778234205                                                              1880156 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:34 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567744:172.21.64.17:25007:1542778233899                                                              1880155 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:34 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567743:172.21.64.17:25007:1542778233611                                                              1880154 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:33 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567742:172.21.64.17:25007:1542778233309                                                              1880153 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:33 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567733:172.21.64.17:25007:1542778230428                                                              1880151 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:30 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567732:172.21.64.17:25007:1542778230128                                                              1880150 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:30 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567731:172.21.64.17:25007:1542778229840                                                              1880149 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:29 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567730:172.21.64.17:25007:1542778229558                                                              1880148 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:29 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567729:172.21.64.17:25007:1542778229244                                                              1880147 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:29 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567728:172.21.64.17:25007:1542778228948                                                              1880146 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:29 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567727:172.21.64.17:25007:1542778228642                                                              1880145 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:28 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567724:172.21.64.17:25007:1542778227677                                                              1880143 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:27 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567723:172.21.64.17:25007:1542778227391                                                              1880142 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:27 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567722:172.21.64.17:25007:1542778227056                                                              1880141 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:27 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567721:172.21.64.17:25007:1542778226768                                                              1880140 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:26 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190567720:172.21.64.17:25007:1542778226457                                                              1880139 TIME_OUT                                                                                                                                                                                                                                                                    21-NOV-2018 00:30:26 21-NOV-2018 00:31:17                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561402:172.21.64.17:25007:1542765670229                                                              1878436 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:10 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561401:172.21.64.17:25007:1542765669840                                                              1878435 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:09 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561400:172.21.64.17:25007:1542765669528                                                              1878434 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:09 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561399:172.21.64.17:25007:1542765669237                                                              1878433 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:09 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561398:172.21.64.17:25007:1542765668938                                                              1878432 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:09 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561397:172.21.64.17:25007:1542765668621                                                              1878431 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:08 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561396:172.21.64.17:25007:1542765668318                                                              1878430 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:08 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561395:172.21.64.17:25007:1542765668010                                                              1878429 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:08 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561394:172.21.64.17:25007:1542765667688                                                              1878428 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:07 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561390:172.21.64.17:25007:1542765666738                                                              1878427 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:06 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561389:172.21.64.17:25007:1542765666420                                                              1878426 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:06 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561388:172.21.64.17:25007:1542765666108                                                              1878425 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:06 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561385:172.21.64.17:25007:1542765665138                                                              1878424 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:05 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561376:172.21.64.17:25007:1542765662058                                                              1878423 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:02 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561375:172.21.64.17:25007:1542765661746                                                              1878422 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:01:01 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561348:172.21.64.17:25007:1542765651431                                                              1878421 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:51 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561347:172.21.64.17:25007:1542765651128                                                              1878420 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:51 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561342:172.21.64.17:25007:1542765649467                                                              1878419 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:49 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561340:172.21.64.17:25007:1542765648804                                                              1878418 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:48 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561339:172.21.64.17:25007:1542765648494                                                              1878417 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:48 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561326:172.21.64.17:25007:1542765643978                                                              1878416 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:44 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561323:172.21.64.17:25007:1542765642958                                                              1878415 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:43 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561322:172.21.64.17:25007:1542765642637                                                              1878414 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:42 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561321:172.21.64.17:25007:1542765642328                                                              1878413 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:42 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561320:172.21.64.17:25007:1542765642011                                                              1878412 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:42 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561319:172.21.64.17:25007:1542765641688                                                              1878411 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:41 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561318:172.21.64.17:25007:1542765641351                                                              1878410 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:41 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561309:172.21.64.17:25007:1542765638209                                                              1878409 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:38 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561308:172.21.64.17:25007:1542765637890                                                              1878408 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:38 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561307:172.21.64.17:25007:1542765637538                                                              1878407 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:37 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561306:172.21.64.17:25007:1542765637208                                                              1878406 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:37 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561305:172.21.64.17:25007:1542765636884                                                              1878405 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:37 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561304:172.21.64.17:25007:1542765636558                                                              1878404 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:36 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561303:172.21.64.17:25007:1542765636230                                                              1878403 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:36 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561300:172.21.64.17:25007:1542765635256                                                              1878402 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:35 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561299:172.21.64.17:25007:1542765634918                                                              1878401 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:35 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561298:172.21.64.17:25007:1542765634608                                                              1878400 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:34 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561297:172.21.64.17:25007:1542765634298                                                              1878399 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:34 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190561296:172.21.64.17:25007:1542765633959                                                              1878398 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 21:00:34 20-NOV-2018 21:01:12                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554079:172.21.64.17:25007:1542736810762                                                              1876164 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:10 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554078:172.21.64.17:25007:1542736810413                                                              1876163 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:10 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554077:172.21.64.17:25007:1542736810112                                                              1876162 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:10 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554076:172.21.64.17:25007:1542736809805                                                              1876161 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:09 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554075:172.21.64.17:25007:1542736809502                                                              1876160 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:09 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554074:172.21.64.17:25007:1542736809203                                                              1876159 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:09 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554073:172.21.64.17:25007:1542736808912                                                              1876158 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:09 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554072:172.21.64.17:25007:1542736808616                                                              1876157 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:08 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190554070:172.21.64.17:25007:1542736807582                                                              1876156 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 13:00:07 20-NOV-2018 13:00:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190552220:172.21.64.17:25007:1542731856225                                                              1875570 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 11:37:36 20-NOV-2018 11:37:59                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190552081:172.21.64.17:25007:1542731558044                                                              1875535 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 11:32:38 20-NOV-2018 11:32:39                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548831:172.21.64.17:25007:1542724213549                                                              1874462 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:13 20-NOV-2018 09:31:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548830:172.21.64.17:25007:1542724213229                                                              1874461 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:13 20-NOV-2018 09:31:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548829:172.21.64.17:25007:1542724212919                                                              1874460 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:13 20-NOV-2018 09:31:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548828:172.21.64.17:25007:1542724212622                                                              1874459 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:12 20-NOV-2018 09:31:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548827:172.21.64.17:25007:1542724212319                                                              1874458 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:12 20-NOV-2018 09:31:16                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548826:172.21.64.17:25007:1542724212009                                                              1874457 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:12 20-NOV-2018 09:31:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548825:172.21.64.17:25007:1542724211697                                                              1874456 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:11 20-NOV-2018 09:31:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548824:172.21.64.17:25007:1542724211363                                                              1874455 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:11 20-NOV-2018 09:31:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190548822:172.21.64.17:25007:1542724210209                                                              1874454 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 09:30:10 20-NOV-2018 09:31:15                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547281:172.21.64.17:25007:1542711628947                                                              1873943 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:29 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547275:172.21.64.17:25007:1542711626528                                                              1873942 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:26 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547274:172.21.64.17:25007:1542711626215                                                              1873941 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:26 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547273:172.21.64.17:25007:1542711625896                                                              1873940 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:26 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547272:172.21.64.17:25007:1542711625598                                                              1873939 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:25 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547271:172.21.64.17:25007:1542711625295                                                              1873938 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:25 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547270:172.21.64.17:25007:1542711624993                                                              1873937 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:25 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547269:172.21.64.17:25007:1542711624676                                                              1873936 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:24 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547268:172.21.64.17:25007:1542711624383                                                              1873935 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:24 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547267:172.21.64.17:25007:1542711624056                                                              1873934 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:24 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547265:172.21.64.17:25007:1542711623166                                                              1873933 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:23 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547264:172.21.64.17:25007:1542711622857                                                              1873932 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:22 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547261:172.21.64.17:25007:1542711621896                                                              1873931 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:22 20-NOV-2018 06:01:26                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547252:172.21.64.17:25007:1542711619151                                                              1873930 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:19 20-NOV-2018 06:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547251:172.21.64.17:25007:1542711618846                                                              1873929 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:18 20-NOV-2018 06:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547224:172.21.64.17:25007:1542711609086                                                              1873928 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:09 20-NOV-2018 06:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190547223:172.21.64.17:25007:1542711608760                                                              1873927 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 06:00:08 20-NOV-2018 06:00:21                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541982:172.21.64.17:25007:1542699062205                                                              1871286 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:31:02 20-NOV-2018 02:32:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541976:172.21.64.17:25007:1542699059555                                                              1871285 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:59 20-NOV-2018 02:32:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541975:172.21.64.17:25007:1542699059214                                                              1871284 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:59 20-NOV-2018 02:32:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541974:172.21.64.17:25007:1542699058892                                                              1871283 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:59 20-NOV-2018 02:32:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541973:172.21.64.17:25007:1542699058585                                                              1871282 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:58 20-NOV-2018 02:32:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541972:172.21.64.17:25007:1542699058263                                                              1871281 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:58 20-NOV-2018 02:32:01                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541971:172.21.64.17:25007:1542699057955                                                              1871280 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:58 20-NOV-2018 02:32:01                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541970:172.21.64.17:25007:1542699057637                                                              1871279 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:57 20-NOV-2018 02:32:00                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541969:172.21.64.17:25007:1542699057315                                                              1871278 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:57 20-NOV-2018 02:32:00                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541968:172.21.64.17:25007:1542699056985                                                              1871277 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:57 20-NOV-2018 02:32:00                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541966:172.21.64.17:25007:1542699056035                                                              1871276 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:56 20-NOV-2018 02:32:00                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541965:172.21.64.17:25007:1542699055643                                                              1871275 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:55 20-NOV-2018 02:32:00                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541962:172.21.64.17:25007:1542699054535                                                              1871274 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:54 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541953:172.21.64.17:25007:1542699051518                                                              1871273 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:51 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541952:172.21.64.17:25007:1542699051195                                                              1871272 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:51 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541925:172.21.64.17:25007:1542699041196                                                              1871271 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:41 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541924:172.21.64.17:25007:1542699040865                                                              1871270 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:40 20-NOV-2018 02:30:41                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541919:172.21.64.17:25007:1542699039222                                                              1871269 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:39 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541917:172.21.64.17:25007:1542699038546                                                              1871268 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:38 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541916:172.21.64.17:25007:1542699038205                                                              1871267 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:38 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541903:172.21.64.17:25007:1542699033845                                                              1871266 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:33 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541900:172.21.64.17:25007:1542699032811                                                              1871265 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:32 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541899:172.21.64.17:25007:1542699032505                                                              1871264 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:32 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541898:172.21.64.17:25007:1542699032179                                                              1871263 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:32 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541897:172.21.64.17:25007:1542699031854                                                              1871262 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:31 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541896:172.21.64.17:25007:1542699031539                                                              1871261 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:31 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541895:172.21.64.17:25007:1542699031215                                                              1871260 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:31 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541886:172.21.64.17:25007:1542699028068                                                              1871259 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:28 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541885:172.21.64.17:25007:1542699027764                                                              1871258 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:27 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541884:172.21.64.17:25007:1542699027448                                                              1871257 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:27 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541883:172.21.64.17:25007:1542699027125                                                              1871256 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:27 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541882:172.21.64.17:25007:1542699026707                                                              1871255 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:26 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541880:172.21.64.17:25007:1542699026404                                                              1871254 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:26 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190541879:172.21.64.17:25007:1542699026065                                                              1871253 TIME_OUT                                                                                                                                                                                                                                                                    20-NOV-2018 02:30:26 20-NOV-2018 02:30:55                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509958:172.21.64.17:25007:1542686452382                                                              1870056 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:52 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509952:172.21.64.17:25007:1542686449853                                                              1870055 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:49 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509951:172.21.64.17:25007:1542686449551                                                              1870054 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:49 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509950:172.21.64.17:25007:1542686449245                                                              1870053 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:49 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509949:172.21.64.17:25007:1542686448931                                                              1870052 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:49 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509948:172.21.64.17:25007:1542686448614                                                              1870051 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:48 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509947:172.21.64.17:25007:1542686448321                                                              1870050 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:48 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509946:172.21.64.17:25007:1542686447973                                                              1870049 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:48 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509945:172.21.64.17:25007:1542686447681                                                              1870048 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:47 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509944:172.21.64.17:25007:1542686447382                                                              1870047 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:47 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509942:172.21.64.17:25007:1542686446464                                                              1870046 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:46 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509941:172.21.64.17:25007:1542686446152                                                              1870045 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:46 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509938:172.21.64.17:25007:1542686445124                                                              1870044 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:45 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509929:172.21.64.17:25007:1542686442156                                                              1870043 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:42 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509928:172.21.64.17:25007:1542686441661                                                              1870042 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:41 19-NOV-2018 23:01:42                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509901:172.21.64.17:25007:1542686431551                                                              1870041 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:31 19-NOV-2018 23:00:38                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509900:172.21.64.17:25007:1542686431242                                                              1870040 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:31 19-NOV-2018 23:00:38                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509895:172.21.64.17:25007:1542686429581                                                              1870039 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:29 19-NOV-2018 23:00:38                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509893:172.21.64.17:25007:1542686428944                                                              1870038 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:29 19-NOV-2018 23:00:38                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509892:172.21.64.17:25007:1542686428631                                                              1870037 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:28 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509879:172.21.64.17:25007:1542686424411                                                              1870036 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:24 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509876:172.21.64.17:25007:1542686423076                                                              1870035 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:23 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509875:172.21.64.17:25007:1542686422501                                                              1870034 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:22 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509874:172.21.64.17:25007:1542686422164                                                              1870033 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:22 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509873:172.21.64.17:25007:1542686421851                                                              1870032 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:21 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509872:172.21.64.17:25007:1542686421545                                                              1870031 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:21 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509871:172.21.64.17:25007:1542686421181                                                              1870030 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:21 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509862:172.21.64.17:25007:1542686417965                                                              1870029 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:18 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509861:172.21.64.17:25007:1542686417662                                                              1870028 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:17 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509860:172.21.64.17:25007:1542686417343                                                              1870027 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:17 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509859:172.21.64.17:25007:1542686417006                                                              1870026 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:17 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509858:172.21.64.17:25007:1542686416667                                                              1870025 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:16 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509857:172.21.64.17:25007:1542686416375                                                              1870024 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:16 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509856:172.21.64.17:25007:1542686415986                                                              1870023 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:16 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509853:172.21.64.17:25007:1542686414956                                                              1870022 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:15 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509852:172.21.64.17:25007:1542686414653                                                              1870021 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:14 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509851:172.21.64.17:25007:1542686414356                                                              1870020 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:14 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509850:172.21.64.17:25007:1542686414046                                                              1870019 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:14 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190509849:172.21.64.17:25007:1542686413720                                                              1870018 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 23:00:13 19-NOV-2018 23:00:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190491482:172.21.64.17:25007:1542675588539                                                              1866210 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 19:59:48 19-NOV-2018 20:00:48                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190485687:172.21.64.17:25007:1542673953482                                                              1865609 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 19:32:33 19-NOV-2018 19:32:37                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460770:172.21.64.17:25007:1542643204610                                                              1859730 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:04 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460769:172.21.64.17:25007:1542643204302                                                              1859729 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:04 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460768:172.21.64.17:25007:1542643203996                                                              1859728 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:04 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460767:172.21.64.17:25007:1542643203662                                                              1859727 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:03 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460766:172.21.64.17:25007:1542643203332                                                              1859726 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:03 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460765:172.21.64.17:25007:1542643202992                                                              1859725 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:03 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460764:172.21.64.17:25007:1542643202683                                                              1859724 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:02 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460763:172.21.64.17:25007:1542643202222                                                              1859723 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:02 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460762:172.21.64.17:25007:1542643200909                                                              1859722 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:01 19-NOV-2018 11:00:33                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190460760:172.21.64.17:25007:1542643199877                                                              1859721 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 11:00:00 19-NOV-2018 11:00:00                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456775:172.21.64.17:25007:1542630603794                                                              1858486 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:03 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456774:172.21.64.17:25007:1542630603488                                                              1858485 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:03 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456773:172.21.64.17:25007:1542630603190                                                              1858484 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:03 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456772:172.21.64.17:25007:1542630602884                                                              1858483 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:03 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456771:172.21.64.17:25007:1542630602542                                                              1858482 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:02 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456770:172.21.64.17:25007:1542630602134                                                              1858481 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:02 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456769:172.21.64.17:25007:1542630601835                                                              1858480 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:01 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456768:172.21.64.17:25007:1542630601504                                                              1858479 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:01 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456767:172.21.64.17:25007:1542630601180                                                              1858478 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:01 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456765:172.21.64.17:25007:1542630600284                                                              1858477 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:30:00 19-NOV-2018 07:30:13                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190456664:172.21.64.17:25007:1542628800041                                                              1858439 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 07:00:00 19-NOV-2018 07:00:32                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449025:172.21.64.17:25007:1542618020060                                                              1855290 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:20 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449024:172.21.64.17:25007:1542618019752                                                              1855289 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:19 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449023:172.21.64.17:25007:1542618019446                                                              1855288 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:19 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449022:172.21.64.17:25007:1542618019142                                                              1855287 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:19 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449021:172.21.64.17:25007:1542618018741                                                              1855286 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:18 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449020:172.21.64.17:25007:1542618018422                                                              1855285 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:18 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449019:172.21.64.17:25007:1542618018062                                                              1855284 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:18 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449018:172.21.64.17:25007:1542618017732                                                              1855283 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:17 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449017:172.21.64.17:25007:1542618017409                                                              1855282 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:17 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449016:172.21.64.17:25007:1542618017072                                                              1855281 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:17 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449014:172.21.64.17:25007:1542618016072                                                              1855280 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:16 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449005:172.21.64.17:25007:1542618013272                                                              1855279 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:13 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190449004:172.21.64.17:25007:1542618012973                                                              1855278 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:13 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190448977:172.21.64.17:25007:1542618002966                                                              1855277 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:03 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190448976:172.21.64.17:25007:1542618002558                                                              1855276 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 04:00:02 19-NOV-2018 04:00:27                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190448972:172.21.64.17:25007:1542616202679                                                              1854961 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 03:30:02 19-NOV-2018 03:30:11                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420022:172.21.64.17:25007:1542605439909                                                              1853058 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:40 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420021:172.21.64.17:25007:1542605439494                                                              1853057 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:39 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420020:172.21.64.17:25007:1542605439080                                                              1853056 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:39 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420019:172.21.64.17:25007:1542605438674                                                              1853055 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:38 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420018:172.21.64.17:25007:1542605438169                                                              1853054 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:38 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420017:172.21.64.17:25007:1542605437745                                                              1853053 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:37 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420016:172.21.64.17:25007:1542605437334                                                              1853051 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:37 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420015:172.21.64.17:25007:1542605436924                                                              1853050 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:37 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420014:172.21.64.17:25007:1542605436509                                                              1853049 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:36 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420013:172.21.64.17:25007:1542605436095                                                              1853048 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:36 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420011:172.21.64.17:25007:1542605434694                                                              1853047 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:34 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420002:172.21.64.17:25007:1542605431755                                                              1853045 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:31 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190420001:172.21.64.17:25007:1542605431312                                                              1853044 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:31 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419974:172.21.64.17:25007:1542605421184                                                              1853040 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:21 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419973:172.21.64.17:25007:1542605420571                                                              1853039 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:20 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419968:172.21.64.17:25007:1542605418864                                                              1853037 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:19 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419966:172.21.64.17:25007:1542605418114                                                              1853036 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:18 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419965:172.21.64.17:25007:1542605417687                                                              1853035 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:17 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419952:172.21.64.17:25007:1542605413424                                                              1853033 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:13 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419949:172.21.64.17:25007:1542605412178                                                              1853031 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:12 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419948:172.21.64.17:25007:1542605411754                                                              1853030 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:11 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419947:172.21.64.17:25007:1542605411298                                                              1853029 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:11 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419946:172.21.64.17:25007:1542605410884                                                              1853028 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:11 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419945:172.21.64.17:25007:1542605410440                                                              1853027 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:10 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419944:172.21.64.17:25007:1542605410015                                                              1853026 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:10 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419935:172.21.64.17:25007:1542605406975                                                              1853024 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:07 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419934:172.21.64.17:25007:1542605406564                                                              1853023 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:06 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419933:172.21.64.17:25007:1542605406141                                                              1853022 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:06 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419932:172.21.64.17:25007:1542605405714                                                              1853020 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:05 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419931:172.21.64.17:25007:1542605405258                                                              1853019 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:05 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419930:172.21.64.17:25007:1542605404444                                                              1853018 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:04 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419929:172.21.64.17:25007:1542605403970                                                              1853017 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:30:04 19-NOV-2018 00:31:02                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS:JAM:190419579:172.21.64.17:25007:1542603951750                                                              1852820 TIME_OUT                                                                                                                                                                                                                                                                    19-NOV-2018 00:05:51 19-NOV-2018 00:06:06                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 848 rows selected </t>
   </si>
 </sst>
 </file>
@@ -2809,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B24FFB-81DF-1141-8475-DC4604AFC555}">
-  <dimension ref="A1:A812"/>
+  <dimension ref="A1:A852"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A812"/>
+      <selection sqref="A1:A852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6867,9 +6987,209 @@
         <v>809</v>
       </c>
     </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>810</v>
+      </c>
+    </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>810</v>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
